--- a/generated_docs/WR_89877351_WeekEnding_080325.xlsx
+++ b/generated_docs/WR_89877351_WeekEnding_080325.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I79"/>
+  <dimension ref="A2:I118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 07/30/2025 01:48 PM</t>
+          <t>Report Generated On: 08/16/2025 12:48 AM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>50693.31</v>
+        <v>18819.02</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -635,7 +635,7 @@
       </c>
       <c r="C10" s="6" t="inlineStr">
         <is>
-          <t>07/30/2025 to 08/03/25</t>
+          <t>07/28/2025 to 08/03/25</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
@@ -742,7 +742,7 @@
       </c>
       <c r="B16" s="9" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-TL-C</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C16" s="9" t="inlineStr">
@@ -752,7 +752,7 @@
       </c>
       <c r="D16" s="9" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E16" s="9" t="inlineStr">
@@ -765,18 +765,18 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>350.53</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="12" t="inlineStr">
         <is>
-          <t>Point 27</t>
+          <t>Point 28</t>
         </is>
       </c>
       <c r="B17" s="12" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>PLA-CUT</t>
         </is>
       </c>
       <c r="C17" s="12" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="D17" s="12" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>PLA,Cut Off Pole Top</t>
         </is>
       </c>
       <c r="E17" s="12" t="inlineStr">
@@ -799,18 +799,18 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>110.74</v>
+        <v>216.17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="9" t="inlineStr">
         <is>
-          <t>Point 27</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B18" s="9" t="inlineStr">
         <is>
-          <t>SVD-SG2</t>
+          <t>PLA-CUT</t>
         </is>
       </c>
       <c r="C18" s="9" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="D18" s="9" t="inlineStr">
         <is>
-          <t>SVD,Service Grip,#2</t>
+          <t>PLA,Cut Off Pole Top</t>
         </is>
       </c>
       <c r="E18" s="9" t="inlineStr">
@@ -833,28 +833,28 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>286.25</v>
+        <v>216.17</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="12" t="inlineStr">
         <is>
-          <t>Point 28</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B19" s="12" t="inlineStr">
         <is>
-          <t>ARM-8S-60S-C</t>
+          <t>PLA-CUT</t>
         </is>
       </c>
       <c r="C19" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D19" s="12" t="inlineStr">
         <is>
-          <t>ARM,8ft Single Wood,60in Sgl.Wd,Corr</t>
+          <t>PLA,Cut Off Pole Top</t>
         </is>
       </c>
       <c r="E19" s="12" t="inlineStr">
@@ -867,28 +867,28 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>61.83</v>
+        <v>216.17</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="9" t="inlineStr">
         <is>
-          <t>Point 28</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B20" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>PLA-CUT</t>
         </is>
       </c>
       <c r="C20" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D20" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>PLA,Cut Off Pole Top</t>
         </is>
       </c>
       <c r="E20" s="9" t="inlineStr">
@@ -901,28 +901,28 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>60.43</v>
+        <v>216.17</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="12" t="inlineStr">
         <is>
-          <t>Point 28</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B21" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>DEC-20AL-C</t>
         </is>
       </c>
       <c r="C21" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D21" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
         </is>
       </c>
       <c r="E21" s="12" t="inlineStr">
@@ -931,32 +931,32 @@
         </is>
       </c>
       <c r="F21" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>93.23999999999999</v>
+        <v>572.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="9" t="inlineStr">
         <is>
-          <t>Point 28</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B22" s="9" t="inlineStr">
         <is>
-          <t>PIN-XAL-C</t>
+          <t>PLA-CUT</t>
         </is>
       </c>
       <c r="C22" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D22" s="9" t="inlineStr">
         <is>
-          <t>Pin,Crossarm Light,Corrosive</t>
+          <t>PLA,Cut Off Pole Top</t>
         </is>
       </c>
       <c r="E22" s="9" t="inlineStr">
@@ -965,22 +965,22 @@
         </is>
       </c>
       <c r="F22" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>93.23999999999999</v>
+        <v>216.17</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="12" t="inlineStr">
         <is>
-          <t>Point 27</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B23" s="12" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>PLA-CUT</t>
         </is>
       </c>
       <c r="C23" s="12" t="inlineStr">
@@ -990,7 +990,7 @@
       </c>
       <c r="D23" s="12" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>PLA,Cut Off Pole Top</t>
         </is>
       </c>
       <c r="E23" s="12" t="inlineStr">
@@ -1003,13 +1003,13 @@
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>648.53</v>
+        <v>216.17</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="9" t="inlineStr">
         <is>
-          <t>Point 28</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B24" s="9" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="C24" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D24" s="9" t="inlineStr">
@@ -1043,7 +1043,7 @@
     <row r="25">
       <c r="A25" s="12" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B25" s="12" t="inlineStr">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="C25" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D25" s="12" t="inlineStr">
@@ -1077,7 +1077,7 @@
     <row r="26">
       <c r="A26" s="9" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B26" s="9" t="inlineStr">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="C26" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D26" s="9" t="inlineStr">
@@ -1111,7 +1111,7 @@
     <row r="27">
       <c r="A27" s="12" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 20</t>
         </is>
       </c>
       <c r="B27" s="12" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="C27" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D27" s="12" t="inlineStr">
@@ -1145,22 +1145,22 @@
     <row r="28">
       <c r="A28" s="9" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 22</t>
         </is>
       </c>
       <c r="B28" s="9" t="inlineStr">
         <is>
-          <t>DEC-20AL-C</t>
+          <t>PLA-CUT</t>
         </is>
       </c>
       <c r="C28" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D28" s="9" t="inlineStr">
         <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
+          <t>PLA,Cut Off Pole Top</t>
         </is>
       </c>
       <c r="E28" s="9" t="inlineStr">
@@ -1169,22 +1169,22 @@
         </is>
       </c>
       <c r="F28" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>572.5</v>
+        <v>216.17</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="12" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 27</t>
         </is>
       </c>
       <c r="B29" s="12" t="inlineStr">
         <is>
-          <t>PLA-CUT</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C29" s="12" t="inlineStr">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="D29" s="12" t="inlineStr">
         <is>
-          <t>PLA,Cut Off Pole Top</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E29" s="12" t="inlineStr">
@@ -1207,18 +1207,18 @@
       </c>
       <c r="G29" s="13" t="inlineStr"/>
       <c r="H29" s="14" t="n">
-        <v>216.17</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="9" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 27</t>
         </is>
       </c>
       <c r="B30" s="9" t="inlineStr">
         <is>
-          <t>PLA-CUT</t>
+          <t>SVD-SG2</t>
         </is>
       </c>
       <c r="C30" s="9" t="inlineStr">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="D30" s="9" t="inlineStr">
         <is>
-          <t>PLA,Cut Off Pole Top</t>
+          <t>SVD,Service Grip,#2</t>
         </is>
       </c>
       <c r="E30" s="9" t="inlineStr">
@@ -1241,18 +1241,18 @@
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>216.17</v>
+        <v>286.25</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="12" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 28</t>
         </is>
       </c>
       <c r="B31" s="12" t="inlineStr">
         <is>
-          <t>PLA-CUT</t>
+          <t>ARM-8S-60S-C</t>
         </is>
       </c>
       <c r="C31" s="12" t="inlineStr">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="D31" s="12" t="inlineStr">
         <is>
-          <t>PLA,Cut Off Pole Top</t>
+          <t>ARM,8ft Single Wood,60in Sgl.Wd,Corr</t>
         </is>
       </c>
       <c r="E31" s="12" t="inlineStr">
@@ -1275,18 +1275,18 @@
       </c>
       <c r="G31" s="13" t="inlineStr"/>
       <c r="H31" s="14" t="n">
-        <v>216.17</v>
+        <v>61.83</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="9" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 28</t>
         </is>
       </c>
       <c r="B32" s="9" t="inlineStr">
         <is>
-          <t>PLA-CUT</t>
+          <t>CON-2-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C32" s="9" t="inlineStr">
@@ -1296,31 +1296,31 @@
       </c>
       <c r="D32" s="9" t="inlineStr">
         <is>
-          <t>PLA,Cut Off Pole Top</t>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
         </is>
       </c>
       <c r="E32" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F32" s="10" t="n">
-        <v>1</v>
+        <v>121</v>
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>216.17</v>
+        <v>112.53</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="12" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 28</t>
         </is>
       </c>
       <c r="B33" s="12" t="inlineStr">
         <is>
-          <t>PLA-CUT</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C33" s="12" t="inlineStr">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="D33" s="12" t="inlineStr">
         <is>
-          <t>PLA,Cut Off Pole Top</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E33" s="12" t="inlineStr">
@@ -1343,18 +1343,18 @@
       </c>
       <c r="G33" s="13" t="inlineStr"/>
       <c r="H33" s="14" t="n">
-        <v>216.17</v>
+        <v>60.43</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="9" t="inlineStr">
         <is>
-          <t>Point 20</t>
+          <t>Point 28</t>
         </is>
       </c>
       <c r="B34" s="9" t="inlineStr">
         <is>
-          <t>PLA-CUT</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C34" s="9" t="inlineStr">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="D34" s="9" t="inlineStr">
         <is>
-          <t>PLA,Cut Off Pole Top</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E34" s="9" t="inlineStr">
@@ -1373,22 +1373,22 @@
         </is>
       </c>
       <c r="F34" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G34" s="10" t="inlineStr"/>
       <c r="H34" s="11" t="n">
-        <v>216.17</v>
+        <v>93.23999999999999</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="12" t="inlineStr">
         <is>
-          <t>Point 22</t>
+          <t>Point 28</t>
         </is>
       </c>
       <c r="B35" s="12" t="inlineStr">
         <is>
-          <t>PLA-CUT</t>
+          <t>PIN-XAL-C</t>
         </is>
       </c>
       <c r="C35" s="12" t="inlineStr">
@@ -1398,7 +1398,7 @@
       </c>
       <c r="D35" s="12" t="inlineStr">
         <is>
-          <t>PLA,Cut Off Pole Top</t>
+          <t>Pin,Crossarm Light,Corrosive</t>
         </is>
       </c>
       <c r="E35" s="12" t="inlineStr">
@@ -1407,11 +1407,11 @@
         </is>
       </c>
       <c r="F35" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G35" s="13" t="inlineStr"/>
       <c r="H35" s="14" t="n">
-        <v>216.17</v>
+        <v>93.23999999999999</v>
       </c>
     </row>
     <row r="36">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="H36" s="16" t="n">
-        <v>4655.160000000001</v>
+        <v>4417.16</v>
       </c>
     </row>
     <row r="39">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="B41" s="9" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-TL-C</t>
+          <t>PLA-DLOC</t>
         </is>
       </c>
       <c r="C41" s="9" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="D41" s="9" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
+          <t>PLA,Difficult Location</t>
         </is>
       </c>
       <c r="E41" s="9" t="inlineStr">
@@ -1504,7 +1504,7 @@
       </c>
       <c r="G41" s="10" t="inlineStr"/>
       <c r="H41" s="11" t="n">
-        <v>350.53</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="42">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="B42" s="12" t="inlineStr">
         <is>
-          <t>BKT-AC18-F-C</t>
+          <t>PLA-CUT</t>
         </is>
       </c>
       <c r="C42" s="12" t="inlineStr">
@@ -1525,7 +1525,7 @@
       </c>
       <c r="D42" s="12" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
+          <t>PLA,Cut Off Pole Top</t>
         </is>
       </c>
       <c r="E42" s="12" t="inlineStr">
@@ -1534,11 +1534,11 @@
         </is>
       </c>
       <c r="F42" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G42" s="13" t="inlineStr"/>
       <c r="H42" s="14" t="n">
-        <v>63.44</v>
+        <v>216.17</v>
       </c>
     </row>
     <row r="43">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="B43" s="9" t="inlineStr">
         <is>
-          <t>EQL-3-4-C-2-S-X</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C43" s="9" t="inlineStr">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="D43" s="9" t="inlineStr">
         <is>
-          <t>EQL,3 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E43" s="9" t="inlineStr">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="G43" s="10" t="inlineStr"/>
       <c r="H43" s="11" t="n">
-        <v>670</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="44">
@@ -1583,7 +1583,7 @@
       </c>
       <c r="B44" s="12" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>ARM-8SF-GN-TL-C</t>
         </is>
       </c>
       <c r="C44" s="12" t="inlineStr">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="D44" s="12" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
         </is>
       </c>
       <c r="E44" s="12" t="inlineStr">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="G44" s="13" t="inlineStr"/>
       <c r="H44" s="14" t="n">
-        <v>110.74</v>
+        <v>350.53</v>
       </c>
     </row>
     <row r="45">
@@ -1617,7 +1617,7 @@
       </c>
       <c r="B45" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>BKT-AC18-F-C</t>
         </is>
       </c>
       <c r="C45" s="9" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="D45" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E45" s="9" t="inlineStr">
@@ -1640,7 +1640,7 @@
       </c>
       <c r="G45" s="10" t="inlineStr"/>
       <c r="H45" s="11" t="n">
-        <v>188.34</v>
+        <v>63.44</v>
       </c>
     </row>
     <row r="46">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="B46" s="12" t="inlineStr">
         <is>
-          <t>PIN-XAL-C</t>
+          <t>EQL-3-4-C-2-S-X</t>
         </is>
       </c>
       <c r="C46" s="12" t="inlineStr">
@@ -1661,7 +1661,7 @@
       </c>
       <c r="D46" s="12" t="inlineStr">
         <is>
-          <t>Pin,Crossarm Light,Corrosive</t>
+          <t>EQL,3 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
         </is>
       </c>
       <c r="E46" s="12" t="inlineStr">
@@ -1670,11 +1670,11 @@
         </is>
       </c>
       <c r="F46" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G46" s="13" t="inlineStr"/>
       <c r="H46" s="14" t="n">
-        <v>188.34</v>
+        <v>670</v>
       </c>
     </row>
     <row r="47">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="B47" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C47" s="9" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="D47" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E47" s="9" t="inlineStr">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="G47" s="10" t="inlineStr"/>
       <c r="H47" s="11" t="n">
-        <v>478.55</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="48">
@@ -1719,7 +1719,7 @@
       </c>
       <c r="B48" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C48" s="12" t="inlineStr">
@@ -1729,7 +1729,7 @@
       </c>
       <c r="D48" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E48" s="12" t="inlineStr">
@@ -1738,11 +1738,11 @@
         </is>
       </c>
       <c r="F48" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G48" s="13" t="inlineStr"/>
       <c r="H48" s="14" t="n">
-        <v>55.18</v>
+        <v>188.34</v>
       </c>
     </row>
     <row r="49">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="B49" s="9" t="inlineStr">
         <is>
-          <t>SAA-DE-20-C</t>
+          <t>PIN-XAL-C</t>
         </is>
       </c>
       <c r="C49" s="9" t="inlineStr">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="D49" s="9" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0, Corr.</t>
+          <t>Pin,Crossarm Light,Corrosive</t>
         </is>
       </c>
       <c r="E49" s="9" t="inlineStr">
@@ -1772,11 +1772,11 @@
         </is>
       </c>
       <c r="F49" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G49" s="10" t="inlineStr"/>
       <c r="H49" s="11" t="n">
-        <v>55.18</v>
+        <v>188.34</v>
       </c>
     </row>
     <row r="50">
@@ -1787,7 +1787,7 @@
       </c>
       <c r="B50" s="12" t="inlineStr">
         <is>
-          <t>SAA-SP-336</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C50" s="12" t="inlineStr">
@@ -1797,7 +1797,7 @@
       </c>
       <c r="D50" s="12" t="inlineStr">
         <is>
-          <t>SAA,Spreader Bkt, 336MCM Max</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E50" s="12" t="inlineStr">
@@ -1810,7 +1810,7 @@
       </c>
       <c r="G50" s="13" t="inlineStr"/>
       <c r="H50" s="14" t="n">
-        <v>55.18</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="51">
@@ -1821,17 +1821,17 @@
       </c>
       <c r="B51" s="9" t="inlineStr">
         <is>
-          <t>SVC-2-TP-AAA-RS</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C51" s="9" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D51" s="9" t="inlineStr">
         <is>
-          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E51" s="9" t="inlineStr">
@@ -1844,7 +1844,7 @@
       </c>
       <c r="G51" s="10" t="inlineStr"/>
       <c r="H51" s="11" t="n">
-        <v>195.83</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="52">
@@ -1855,7 +1855,7 @@
       </c>
       <c r="B52" s="12" t="inlineStr">
         <is>
-          <t>SVD-3-CV-C</t>
+          <t>SAA-DE-20-C</t>
         </is>
       </c>
       <c r="C52" s="12" t="inlineStr">
@@ -1865,7 +1865,7 @@
       </c>
       <c r="D52" s="12" t="inlineStr">
         <is>
-          <t>SVD,3 inch,Clevis,Corr</t>
+          <t>SAA,DE Clamp #4-2/0, Corr.</t>
         </is>
       </c>
       <c r="E52" s="12" t="inlineStr">
@@ -1889,7 +1889,7 @@
       </c>
       <c r="B53" s="9" t="inlineStr">
         <is>
-          <t>SVD-SG2</t>
+          <t>SAA-SP-336</t>
         </is>
       </c>
       <c r="C53" s="9" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="D53" s="9" t="inlineStr">
         <is>
-          <t>SVD,Service Grip,#2</t>
+          <t>SAA,Spreader Bkt, 336MCM Max</t>
         </is>
       </c>
       <c r="E53" s="9" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="G53" s="10" t="inlineStr"/>
       <c r="H53" s="11" t="n">
-        <v>286.25</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="54">
@@ -1923,17 +1923,17 @@
       </c>
       <c r="B54" s="12" t="inlineStr">
         <is>
-          <t>XCO-27-100-8-C</t>
+          <t>SVC-2-TP-AAA-RS</t>
         </is>
       </c>
       <c r="C54" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D54" s="12" t="inlineStr">
         <is>
-          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
+          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
         </is>
       </c>
       <c r="E54" s="12" t="inlineStr">
@@ -1942,11 +1942,11 @@
         </is>
       </c>
       <c r="F54" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G54" s="13" t="inlineStr"/>
       <c r="H54" s="14" t="n">
-        <v>124.84</v>
+        <v>195.83</v>
       </c>
     </row>
     <row r="55">
@@ -1957,17 +1957,17 @@
       </c>
       <c r="B55" s="9" t="inlineStr">
         <is>
-          <t>XFR-10-72-120-1B-S</t>
+          <t>SVD-3-CV-C</t>
         </is>
       </c>
       <c r="C55" s="9" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D55" s="9" t="inlineStr">
         <is>
-          <t>XFR,10KVA,7.2/12.4kVY,120/240,1BG,SS</t>
+          <t>SVD,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E55" s="9" t="inlineStr">
@@ -1980,28 +1980,28 @@
       </c>
       <c r="G55" s="10" t="inlineStr"/>
       <c r="H55" s="11" t="n">
-        <v>203</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="12" t="inlineStr">
         <is>
-          <t>Point 18</t>
+          <t>Point 17</t>
         </is>
       </c>
       <c r="B56" s="12" t="inlineStr">
         <is>
-          <t>ARM-8S-60S-C</t>
+          <t>SVD-SG2</t>
         </is>
       </c>
       <c r="C56" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D56" s="12" t="inlineStr">
         <is>
-          <t>ARM,8ft Single Wood,60in Sgl.Wd,Corr</t>
+          <t>SVD,Service Grip,#2</t>
         </is>
       </c>
       <c r="E56" s="12" t="inlineStr">
@@ -2014,28 +2014,28 @@
       </c>
       <c r="G56" s="13" t="inlineStr"/>
       <c r="H56" s="14" t="n">
-        <v>61.83</v>
+        <v>286.25</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="9" t="inlineStr">
         <is>
-          <t>Point 18</t>
+          <t>Point 17</t>
         </is>
       </c>
       <c r="B57" s="9" t="inlineStr">
         <is>
-          <t>BKT-AC18-F-C</t>
+          <t>XCO-27-100-8-C</t>
         </is>
       </c>
       <c r="C57" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D57" s="9" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
+          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
         </is>
       </c>
       <c r="E57" s="9" t="inlineStr">
@@ -2048,28 +2048,28 @@
       </c>
       <c r="G57" s="10" t="inlineStr"/>
       <c r="H57" s="11" t="n">
-        <v>34.74</v>
+        <v>124.84</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="12" t="inlineStr">
         <is>
-          <t>Point 18</t>
+          <t>Point 17</t>
         </is>
       </c>
       <c r="B58" s="12" t="inlineStr">
         <is>
-          <t>EQL-3-4-C-2-S-X</t>
+          <t>XFR-10-72-120-1B-S</t>
         </is>
       </c>
       <c r="C58" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D58" s="12" t="inlineStr">
         <is>
-          <t>EQL,3 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
+          <t>XFR,10KVA,7.2/12.4kVY,120/240,1BG,SS</t>
         </is>
       </c>
       <c r="E58" s="12" t="inlineStr">
@@ -2082,7 +2082,7 @@
       </c>
       <c r="G58" s="13" t="inlineStr"/>
       <c r="H58" s="14" t="n">
-        <v>340</v>
+        <v>203</v>
       </c>
     </row>
     <row r="59">
@@ -2093,7 +2093,7 @@
       </c>
       <c r="B59" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>ARM-8S-60S-C</t>
         </is>
       </c>
       <c r="C59" s="9" t="inlineStr">
@@ -2103,7 +2103,7 @@
       </c>
       <c r="D59" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>ARM,8ft Single Wood,60in Sgl.Wd,Corr</t>
         </is>
       </c>
       <c r="E59" s="9" t="inlineStr">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="G59" s="10" t="inlineStr"/>
       <c r="H59" s="11" t="n">
-        <v>60.43</v>
+        <v>61.83</v>
       </c>
     </row>
     <row r="60">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="B60" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>BKT-AC18-F-C</t>
         </is>
       </c>
       <c r="C60" s="12" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="D60" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E60" s="12" t="inlineStr">
@@ -2150,7 +2150,7 @@
       </c>
       <c r="G60" s="13" t="inlineStr"/>
       <c r="H60" s="14" t="n">
-        <v>62.16</v>
+        <v>34.74</v>
       </c>
     </row>
     <row r="61">
@@ -2161,7 +2161,7 @@
       </c>
       <c r="B61" s="9" t="inlineStr">
         <is>
-          <t>PIN-XAL-C</t>
+          <t>EQL-3-4-C-2-S-X</t>
         </is>
       </c>
       <c r="C61" s="9" t="inlineStr">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="D61" s="9" t="inlineStr">
         <is>
-          <t>Pin,Crossarm Light,Corrosive</t>
+          <t>EQL,3 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
         </is>
       </c>
       <c r="E61" s="9" t="inlineStr">
@@ -2180,11 +2180,11 @@
         </is>
       </c>
       <c r="F61" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G61" s="10" t="inlineStr"/>
       <c r="H61" s="11" t="n">
-        <v>62.16</v>
+        <v>340</v>
       </c>
     </row>
     <row r="62">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="B62" s="12" t="inlineStr">
         <is>
-          <t>POL-40-5</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C62" s="12" t="inlineStr">
@@ -2205,7 +2205,7 @@
       </c>
       <c r="D62" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 5</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E62" s="12" t="inlineStr">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="G62" s="13" t="inlineStr"/>
       <c r="H62" s="14" t="n">
-        <v>198.88</v>
+        <v>60.43</v>
       </c>
     </row>
     <row r="63">
@@ -2229,7 +2229,7 @@
       </c>
       <c r="B63" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C63" s="9" t="inlineStr">
@@ -2239,7 +2239,7 @@
       </c>
       <c r="D63" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E63" s="9" t="inlineStr">
@@ -2248,11 +2248,11 @@
         </is>
       </c>
       <c r="F63" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G63" s="10" t="inlineStr"/>
       <c r="H63" s="11" t="n">
-        <v>17.2</v>
+        <v>62.16</v>
       </c>
     </row>
     <row r="64">
@@ -2263,7 +2263,7 @@
       </c>
       <c r="B64" s="12" t="inlineStr">
         <is>
-          <t>SAA-DE-20-C</t>
+          <t>PIN-XAL-C</t>
         </is>
       </c>
       <c r="C64" s="12" t="inlineStr">
@@ -2273,7 +2273,7 @@
       </c>
       <c r="D64" s="12" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0, Corr.</t>
+          <t>Pin,Crossarm Light,Corrosive</t>
         </is>
       </c>
       <c r="E64" s="12" t="inlineStr">
@@ -2282,11 +2282,11 @@
         </is>
       </c>
       <c r="F64" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G64" s="13" t="inlineStr"/>
       <c r="H64" s="14" t="n">
-        <v>17.2</v>
+        <v>62.16</v>
       </c>
     </row>
     <row r="65">
@@ -2297,7 +2297,7 @@
       </c>
       <c r="B65" s="9" t="inlineStr">
         <is>
-          <t>SVD-3-CV-C</t>
+          <t>POL-40-5</t>
         </is>
       </c>
       <c r="C65" s="9" t="inlineStr">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="D65" s="9" t="inlineStr">
         <is>
-          <t>SVD,3 inch,Clevis,Corr</t>
+          <t>Pole,40ft,Class 5</t>
         </is>
       </c>
       <c r="E65" s="9" t="inlineStr">
@@ -2320,7 +2320,7 @@
       </c>
       <c r="G65" s="10" t="inlineStr"/>
       <c r="H65" s="11" t="n">
-        <v>17.2</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="66">
@@ -2331,7 +2331,7 @@
       </c>
       <c r="B66" s="12" t="inlineStr">
         <is>
-          <t>SVD-SG2</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C66" s="12" t="inlineStr">
@@ -2341,7 +2341,7 @@
       </c>
       <c r="D66" s="12" t="inlineStr">
         <is>
-          <t>SVD,Service Grip,#2</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E66" s="12" t="inlineStr">
@@ -2354,7 +2354,7 @@
       </c>
       <c r="G66" s="13" t="inlineStr"/>
       <c r="H66" s="14" t="n">
-        <v>95.15000000000001</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="67">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="B67" s="9" t="inlineStr">
         <is>
-          <t>XCO-27-100-8-C</t>
+          <t>SAA-DE-20-C</t>
         </is>
       </c>
       <c r="C67" s="9" t="inlineStr">
@@ -2375,7 +2375,7 @@
       </c>
       <c r="D67" s="9" t="inlineStr">
         <is>
-          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
+          <t>SAA,DE Clamp #4-2/0, Corr.</t>
         </is>
       </c>
       <c r="E67" s="9" t="inlineStr">
@@ -2384,32 +2384,32 @@
         </is>
       </c>
       <c r="F67" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G67" s="10" t="inlineStr"/>
       <c r="H67" s="11" t="n">
-        <v>53.04</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="12" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 18</t>
         </is>
       </c>
       <c r="B68" s="12" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-TL-C</t>
+          <t>SVD-3-CV-C</t>
         </is>
       </c>
       <c r="C68" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D68" s="12" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
+          <t>SVD,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E68" s="12" t="inlineStr">
@@ -2422,28 +2422,28 @@
       </c>
       <c r="G68" s="13" t="inlineStr"/>
       <c r="H68" s="14" t="n">
-        <v>350.53</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="9" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 18</t>
         </is>
       </c>
       <c r="B69" s="9" t="inlineStr">
         <is>
-          <t>PLA-DLOC</t>
+          <t>SVD-SG2</t>
         </is>
       </c>
       <c r="C69" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D69" s="9" t="inlineStr">
         <is>
-          <t>PLA,Difficult Location</t>
+          <t>SVD,Service Grip,#2</t>
         </is>
       </c>
       <c r="E69" s="9" t="inlineStr">
@@ -2456,28 +2456,28 @@
       </c>
       <c r="G69" s="10" t="inlineStr"/>
       <c r="H69" s="11" t="n">
-        <v>119.1</v>
+        <v>95.15000000000001</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="12" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 18</t>
         </is>
       </c>
       <c r="B70" s="12" t="inlineStr">
         <is>
-          <t>PLA-CUT</t>
+          <t>XCO-27-100-8-C</t>
         </is>
       </c>
       <c r="C70" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D70" s="12" t="inlineStr">
         <is>
-          <t>PLA,Cut Off Pole Top</t>
+          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
         </is>
       </c>
       <c r="E70" s="12" t="inlineStr">
@@ -2486,22 +2486,22 @@
         </is>
       </c>
       <c r="F70" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G70" s="13" t="inlineStr"/>
       <c r="H70" s="14" t="n">
-        <v>216.17</v>
+        <v>53.04</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="9" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B71" s="9" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>ARM-8SF-GN-TL-C</t>
         </is>
       </c>
       <c r="C71" s="9" t="inlineStr">
@@ -2511,7 +2511,7 @@
       </c>
       <c r="D71" s="9" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
         </is>
       </c>
       <c r="E71" s="9" t="inlineStr">
@@ -2524,7 +2524,7 @@
       </c>
       <c r="G71" s="10" t="inlineStr"/>
       <c r="H71" s="11" t="n">
-        <v>648.53</v>
+        <v>350.53</v>
       </c>
     </row>
     <row r="72">
@@ -2647,33 +2647,1250 @@
         </is>
       </c>
       <c r="F78" s="13" t="n">
-        <v>156</v>
+        <v>1</v>
       </c>
       <c r="G78" s="13" t="inlineStr"/>
       <c r="H78" s="14" t="n">
-        <v>39954.72</v>
+        <v>256.12</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="15" t="inlineStr">
+      <c r="A79" s="9" t="inlineStr">
+        <is>
+          <t>Point 25</t>
+        </is>
+      </c>
+      <c r="B79" s="9" t="inlineStr">
+        <is>
+          <t>DEG-10-SNA</t>
+        </is>
+      </c>
+      <c r="C79" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D79" s="9" t="inlineStr">
+        <is>
+          <t>DEG,1/0,Secondary Neutral Al</t>
+        </is>
+      </c>
+      <c r="E79" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F79" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G79" s="10" t="inlineStr"/>
+      <c r="H79" s="11" t="n">
+        <v>572.5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="12" t="inlineStr">
+        <is>
+          <t>Point 25</t>
+        </is>
+      </c>
+      <c r="B80" s="12" t="inlineStr">
+        <is>
+          <t>DEG-10-SNA</t>
+        </is>
+      </c>
+      <c r="C80" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D80" s="12" t="inlineStr">
+        <is>
+          <t>DEG,1/0,Secondary Neutral Al</t>
+        </is>
+      </c>
+      <c r="E80" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F80" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G80" s="13" t="inlineStr"/>
+      <c r="H80" s="14" t="n">
+        <v>190.3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="9" t="inlineStr">
+        <is>
+          <t>Point 25</t>
+        </is>
+      </c>
+      <c r="B81" s="9" t="inlineStr">
+        <is>
+          <t>SVC-10-TP-AAL-RS</t>
+        </is>
+      </c>
+      <c r="C81" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D81" s="9" t="inlineStr">
+        <is>
+          <t>SVC,1/0,Trip,All Alum,Res</t>
+        </is>
+      </c>
+      <c r="E81" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F81" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G81" s="10" t="inlineStr"/>
+      <c r="H81" s="11" t="n">
+        <v>48.07</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="12" t="inlineStr">
+        <is>
+          <t>Point 25</t>
+        </is>
+      </c>
+      <c r="B82" s="12" t="inlineStr">
+        <is>
+          <t>CNC-HTA-10</t>
+        </is>
+      </c>
+      <c r="C82" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D82" s="12" t="inlineStr">
+        <is>
+          <t>Compression connector H-Tap Assembly 1/0</t>
+        </is>
+      </c>
+      <c r="E82" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F82" s="13" t="n">
+        <v>7</v>
+      </c>
+      <c r="G82" s="13" t="inlineStr"/>
+      <c r="H82" s="14" t="n">
+        <v>66.98999999999999</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H79" s="16" t="n">
-        <v>40603.25</v>
+      <c r="H83" s="16" t="n">
+        <v>1782.51</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="7" t="inlineStr">
+        <is>
+          <t>Thursday (07/31/2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B87" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C87" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D87" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E87" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F87" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G87" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H87" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="9" t="inlineStr">
+        <is>
+          <t>Point 26</t>
+        </is>
+      </c>
+      <c r="B88" s="9" t="inlineStr">
+        <is>
+          <t>PLA-CUT</t>
+        </is>
+      </c>
+      <c r="C88" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D88" s="9" t="inlineStr">
+        <is>
+          <t>PLA,Cut Off Pole Top</t>
+        </is>
+      </c>
+      <c r="E88" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F88" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G88" s="10" t="inlineStr"/>
+      <c r="H88" s="11" t="n">
+        <v>216.17</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="12" t="inlineStr">
+        <is>
+          <t>Point 29</t>
+        </is>
+      </c>
+      <c r="B89" s="12" t="inlineStr">
+        <is>
+          <t>PLA-CUT</t>
+        </is>
+      </c>
+      <c r="C89" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D89" s="12" t="inlineStr">
+        <is>
+          <t>PLA,Cut Off Pole Top</t>
+        </is>
+      </c>
+      <c r="E89" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F89" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G89" s="13" t="inlineStr"/>
+      <c r="H89" s="14" t="n">
+        <v>216.17</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="9" t="inlineStr">
+        <is>
+          <t>Point 29</t>
+        </is>
+      </c>
+      <c r="B90" s="9" t="inlineStr">
+        <is>
+          <t>PLA-HDIG</t>
+        </is>
+      </c>
+      <c r="C90" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D90" s="9" t="inlineStr">
+        <is>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
+        </is>
+      </c>
+      <c r="E90" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F90" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G90" s="10" t="inlineStr"/>
+      <c r="H90" s="11" t="n">
+        <v>648.53</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="12" t="inlineStr">
+        <is>
+          <t>Point 30</t>
+        </is>
+      </c>
+      <c r="B91" s="12" t="inlineStr">
+        <is>
+          <t>PLA-CUT</t>
+        </is>
+      </c>
+      <c r="C91" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D91" s="12" t="inlineStr">
+        <is>
+          <t>PLA,Cut Off Pole Top</t>
+        </is>
+      </c>
+      <c r="E91" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F91" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G91" s="13" t="inlineStr"/>
+      <c r="H91" s="14" t="n">
+        <v>216.17</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="9" t="inlineStr">
+        <is>
+          <t>Point 02</t>
+        </is>
+      </c>
+      <c r="B92" s="9" t="inlineStr">
+        <is>
+          <t>CON-2-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C92" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D92" s="9" t="inlineStr">
+        <is>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+        </is>
+      </c>
+      <c r="E92" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F92" s="10" t="n">
+        <v>78</v>
+      </c>
+      <c r="G92" s="10" t="inlineStr"/>
+      <c r="H92" s="11" t="n">
+        <v>72.54000000000001</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="12" t="inlineStr">
+        <is>
+          <t>Point 04</t>
+        </is>
+      </c>
+      <c r="B93" s="12" t="inlineStr">
+        <is>
+          <t>CON-2-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C93" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D93" s="12" t="inlineStr">
+        <is>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+        </is>
+      </c>
+      <c r="E93" s="12" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F93" s="13" t="n">
+        <v>98</v>
+      </c>
+      <c r="G93" s="13" t="inlineStr"/>
+      <c r="H93" s="14" t="n">
+        <v>91.14</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="9" t="inlineStr">
+        <is>
+          <t>Point 06</t>
+        </is>
+      </c>
+      <c r="B94" s="9" t="inlineStr">
+        <is>
+          <t>CON-2-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C94" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D94" s="9" t="inlineStr">
+        <is>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+        </is>
+      </c>
+      <c r="E94" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F94" s="10" t="n">
+        <v>172</v>
+      </c>
+      <c r="G94" s="10" t="inlineStr"/>
+      <c r="H94" s="11" t="n">
+        <v>159.96</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="12" t="inlineStr">
+        <is>
+          <t>Point 08</t>
+        </is>
+      </c>
+      <c r="B95" s="12" t="inlineStr">
+        <is>
+          <t>CON-2-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C95" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D95" s="12" t="inlineStr">
+        <is>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+        </is>
+      </c>
+      <c r="E95" s="12" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F95" s="13" t="n">
+        <v>103</v>
+      </c>
+      <c r="G95" s="13" t="inlineStr"/>
+      <c r="H95" s="14" t="n">
+        <v>95.79000000000001</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="9" t="inlineStr">
+        <is>
+          <t>Point 10</t>
+        </is>
+      </c>
+      <c r="B96" s="9" t="inlineStr">
+        <is>
+          <t>CON-2-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C96" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D96" s="9" t="inlineStr">
+        <is>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+        </is>
+      </c>
+      <c r="E96" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F96" s="10" t="n">
+        <v>119</v>
+      </c>
+      <c r="G96" s="10" t="inlineStr"/>
+      <c r="H96" s="11" t="n">
+        <v>110.67</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="12" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B97" s="12" t="inlineStr">
+        <is>
+          <t>CON-4-AAA-1-B</t>
+        </is>
+      </c>
+      <c r="C97" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D97" s="12" t="inlineStr">
+        <is>
+          <t>CON,#4 AWG,Alum Alloy,One,Bare</t>
+        </is>
+      </c>
+      <c r="E97" s="12" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F97" s="13" t="n">
+        <v>276</v>
+      </c>
+      <c r="G97" s="13" t="inlineStr"/>
+      <c r="H97" s="14" t="n">
+        <v>256.68</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="9" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B98" s="9" t="inlineStr">
+        <is>
+          <t>CON-4-CHD-1-B</t>
+        </is>
+      </c>
+      <c r="C98" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D98" s="9" t="inlineStr">
+        <is>
+          <t>CON,#4,CU Hard Dr,One,Bare(Rem+Spl only)</t>
+        </is>
+      </c>
+      <c r="E98" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F98" s="10" t="n">
+        <v>495</v>
+      </c>
+      <c r="G98" s="10" t="inlineStr"/>
+      <c r="H98" s="11" t="n">
+        <v>460.35</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="12" t="inlineStr">
+        <is>
+          <t>Point 18</t>
+        </is>
+      </c>
+      <c r="B99" s="12" t="inlineStr">
+        <is>
+          <t>CON-4-AAA-1-B</t>
+        </is>
+      </c>
+      <c r="C99" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D99" s="12" t="inlineStr">
+        <is>
+          <t>CON,#4 AWG,Alum Alloy,One,Bare</t>
+        </is>
+      </c>
+      <c r="E99" s="12" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F99" s="13" t="n">
+        <v>114</v>
+      </c>
+      <c r="G99" s="13" t="inlineStr"/>
+      <c r="H99" s="14" t="n">
+        <v>106.02</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="9" t="inlineStr">
+        <is>
+          <t>Point 20</t>
+        </is>
+      </c>
+      <c r="B100" s="9" t="inlineStr">
+        <is>
+          <t>CON-4-AAA-1-B</t>
+        </is>
+      </c>
+      <c r="C100" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D100" s="9" t="inlineStr">
+        <is>
+          <t>CON,#4 AWG,Alum Alloy,One,Bare</t>
+        </is>
+      </c>
+      <c r="E100" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F100" s="10" t="n">
+        <v>246</v>
+      </c>
+      <c r="G100" s="10" t="inlineStr"/>
+      <c r="H100" s="11" t="n">
+        <v>228.78</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="12" t="inlineStr">
+        <is>
+          <t>Point 25</t>
+        </is>
+      </c>
+      <c r="B101" s="12" t="inlineStr">
+        <is>
+          <t>ARM-8SF-GN-TL-C</t>
+        </is>
+      </c>
+      <c r="C101" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D101" s="12" t="inlineStr">
+        <is>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
+        </is>
+      </c>
+      <c r="E101" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F101" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G101" s="13" t="inlineStr"/>
+      <c r="H101" s="14" t="n">
+        <v>350.53</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="9" t="inlineStr">
+        <is>
+          <t>Point 25</t>
+        </is>
+      </c>
+      <c r="B102" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C102" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D102" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E102" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F102" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G102" s="10" t="inlineStr"/>
+      <c r="H102" s="11" t="n">
+        <v>282.51</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="12" t="inlineStr">
+        <is>
+          <t>Point 25</t>
+        </is>
+      </c>
+      <c r="B103" s="12" t="inlineStr">
+        <is>
+          <t>PIN-XAL-C</t>
+        </is>
+      </c>
+      <c r="C103" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D103" s="12" t="inlineStr">
+        <is>
+          <t>Pin,Crossarm Light,Corrosive</t>
+        </is>
+      </c>
+      <c r="E103" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F103" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G103" s="13" t="inlineStr"/>
+      <c r="H103" s="14" t="n">
+        <v>282.51</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="9" t="inlineStr">
+        <is>
+          <t>Point 25</t>
+        </is>
+      </c>
+      <c r="B104" s="9" t="inlineStr">
+        <is>
+          <t>POL-40-1</t>
+        </is>
+      </c>
+      <c r="C104" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D104" s="9" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 1</t>
+        </is>
+      </c>
+      <c r="E104" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F104" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G104" s="10" t="inlineStr"/>
+      <c r="H104" s="11" t="n">
+        <v>478.55</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="12" t="inlineStr">
+        <is>
+          <t>Point 26</t>
+        </is>
+      </c>
+      <c r="B105" s="12" t="inlineStr">
+        <is>
+          <t>ARM-8S-60S-C</t>
+        </is>
+      </c>
+      <c r="C105" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D105" s="12" t="inlineStr">
+        <is>
+          <t>ARM,8ft Single Wood,60in Sgl.Wd,Corr</t>
+        </is>
+      </c>
+      <c r="E105" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F105" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G105" s="13" t="inlineStr"/>
+      <c r="H105" s="14" t="n">
+        <v>61.83</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="9" t="inlineStr">
+        <is>
+          <t>Point 26</t>
+        </is>
+      </c>
+      <c r="B106" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C106" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D106" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E106" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F106" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G106" s="10" t="inlineStr"/>
+      <c r="H106" s="11" t="n">
+        <v>93.23999999999999</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="12" t="inlineStr">
+        <is>
+          <t>Point 26</t>
+        </is>
+      </c>
+      <c r="B107" s="12" t="inlineStr">
+        <is>
+          <t>PIN-XAL-C</t>
+        </is>
+      </c>
+      <c r="C107" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D107" s="12" t="inlineStr">
+        <is>
+          <t>Pin,Crossarm Light,Corrosive</t>
+        </is>
+      </c>
+      <c r="E107" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F107" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G107" s="13" t="inlineStr"/>
+      <c r="H107" s="14" t="n">
+        <v>93.23999999999999</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="9" t="inlineStr">
+        <is>
+          <t>Point 26</t>
+        </is>
+      </c>
+      <c r="B108" s="9" t="inlineStr">
+        <is>
+          <t>XCO-27-100-8-C</t>
+        </is>
+      </c>
+      <c r="C108" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D108" s="9" t="inlineStr">
+        <is>
+          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
+        </is>
+      </c>
+      <c r="E108" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F108" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G108" s="10" t="inlineStr"/>
+      <c r="H108" s="11" t="n">
+        <v>26.52</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="12" t="inlineStr">
+        <is>
+          <t>Point 27</t>
+        </is>
+      </c>
+      <c r="B109" s="12" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C109" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D109" s="12" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E109" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F109" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G109" s="13" t="inlineStr"/>
+      <c r="H109" s="14" t="n">
+        <v>282.51</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="9" t="inlineStr">
+        <is>
+          <t>Point 27</t>
+        </is>
+      </c>
+      <c r="B110" s="9" t="inlineStr">
+        <is>
+          <t>PIN-XAL-C</t>
+        </is>
+      </c>
+      <c r="C110" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D110" s="9" t="inlineStr">
+        <is>
+          <t>Pin,Crossarm Light,Corrosive</t>
+        </is>
+      </c>
+      <c r="E110" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F110" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G110" s="10" t="inlineStr"/>
+      <c r="H110" s="11" t="n">
+        <v>282.51</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="12" t="inlineStr">
+        <is>
+          <t>Point 27</t>
+        </is>
+      </c>
+      <c r="B111" s="12" t="inlineStr">
+        <is>
+          <t>POL-40-2</t>
+        </is>
+      </c>
+      <c r="C111" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D111" s="12" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E111" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F111" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G111" s="13" t="inlineStr"/>
+      <c r="H111" s="14" t="n">
+        <v>478.55</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="9" t="inlineStr">
+        <is>
+          <t>Point 28</t>
+        </is>
+      </c>
+      <c r="B112" s="9" t="inlineStr">
+        <is>
+          <t>POL-40-4</t>
+        </is>
+      </c>
+      <c r="C112" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D112" s="9" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 4</t>
+        </is>
+      </c>
+      <c r="E112" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F112" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G112" s="10" t="inlineStr"/>
+      <c r="H112" s="11" t="n">
+        <v>198.88</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="12" t="inlineStr">
+        <is>
+          <t>Point 29</t>
+        </is>
+      </c>
+      <c r="B113" s="12" t="inlineStr">
+        <is>
+          <t>ARM-8SF-GN-TL-C</t>
+        </is>
+      </c>
+      <c r="C113" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D113" s="12" t="inlineStr">
+        <is>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
+        </is>
+      </c>
+      <c r="E113" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F113" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G113" s="13" t="inlineStr"/>
+      <c r="H113" s="14" t="n">
+        <v>350.53</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="9" t="inlineStr">
+        <is>
+          <t>Point 29</t>
+        </is>
+      </c>
+      <c r="B114" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C114" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D114" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E114" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F114" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G114" s="10" t="inlineStr"/>
+      <c r="H114" s="11" t="n">
+        <v>282.51</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="12" t="inlineStr">
+        <is>
+          <t>Point 29</t>
+        </is>
+      </c>
+      <c r="B115" s="12" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-C</t>
+        </is>
+      </c>
+      <c r="C115" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D115" s="12" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Corrosive</t>
+        </is>
+      </c>
+      <c r="E115" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F115" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G115" s="13" t="inlineStr"/>
+      <c r="H115" s="14" t="n">
+        <v>94.17</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="9" t="inlineStr">
+        <is>
+          <t>Point 29</t>
+        </is>
+      </c>
+      <c r="B116" s="9" t="inlineStr">
+        <is>
+          <t>PIN-XAL-C</t>
+        </is>
+      </c>
+      <c r="C116" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D116" s="9" t="inlineStr">
+        <is>
+          <t>Pin,Crossarm Light,Corrosive</t>
+        </is>
+      </c>
+      <c r="E116" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F116" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G116" s="10" t="inlineStr"/>
+      <c r="H116" s="11" t="n">
+        <v>188.34</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="12" t="inlineStr">
+        <is>
+          <t>Point 29</t>
+        </is>
+      </c>
+      <c r="B117" s="12" t="inlineStr">
+        <is>
+          <t>POL-40-1</t>
+        </is>
+      </c>
+      <c r="C117" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D117" s="12" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 1</t>
+        </is>
+      </c>
+      <c r="E117" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F117" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G117" s="13" t="inlineStr"/>
+      <c r="H117" s="14" t="n">
+        <v>478.55</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="15" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H118" s="16" t="n">
+        <v>7184.450000000002</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="18">
     <mergeCell ref="A36:G36"/>
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="A39:H39"/>
-    <mergeCell ref="A79:G79"/>
+    <mergeCell ref="A86:H86"/>
+    <mergeCell ref="A118:G118"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A83:G83"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="A14:H14"/>

--- a/generated_docs/WR_89877351_WeekEnding_080325.xlsx
+++ b/generated_docs/WR_89877351_WeekEnding_080325.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I118"/>
+  <dimension ref="A2:I135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/16/2025 12:48 AM</t>
+          <t>Report Generated On: 08/18/2025 09:48 PM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>18819.02</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +799,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>216.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +833,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>216.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -867,7 +867,7 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>216.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -901,7 +901,7 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>216.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -935,7 +935,7 @@
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>572.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -969,7 +969,7 @@
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>216.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>216.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>216.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>216.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>216.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="G27" s="13" t="inlineStr"/>
       <c r="H27" s="14" t="n">
-        <v>216.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>216.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="G29" s="13" t="inlineStr"/>
       <c r="H29" s="14" t="n">
-        <v>110.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="B30" s="9" t="inlineStr">
         <is>
-          <t>SVD-SG2</t>
+          <t>GND-MD</t>
         </is>
       </c>
       <c r="C30" s="9" t="inlineStr">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="D30" s="9" t="inlineStr">
         <is>
-          <t>SVD,Service Grip,#2</t>
+          <t>GND,Wire Mldg Only</t>
         </is>
       </c>
       <c r="E30" s="9" t="inlineStr">
@@ -1237,32 +1237,32 @@
         </is>
       </c>
       <c r="F30" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>286.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="12" t="inlineStr">
         <is>
-          <t>Point 28</t>
+          <t>Point 27</t>
         </is>
       </c>
       <c r="B31" s="12" t="inlineStr">
         <is>
-          <t>ARM-8S-60S-C</t>
+          <t>PLD-EYE-C</t>
         </is>
       </c>
       <c r="C31" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D31" s="12" t="inlineStr">
         <is>
-          <t>ARM,8ft Single Wood,60in Sgl.Wd,Corr</t>
+          <t>PLD,Eyebolt Deadend,Corrosive</t>
         </is>
       </c>
       <c r="E31" s="12" t="inlineStr">
@@ -1275,62 +1275,62 @@
       </c>
       <c r="G31" s="13" t="inlineStr"/>
       <c r="H31" s="14" t="n">
-        <v>61.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="9" t="inlineStr">
         <is>
-          <t>Point 28</t>
+          <t>Point 27</t>
         </is>
       </c>
       <c r="B32" s="9" t="inlineStr">
         <is>
-          <t>CON-2-AAA-1-B-REEL</t>
+          <t>SVD-SG2</t>
         </is>
       </c>
       <c r="C32" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D32" s="9" t="inlineStr">
         <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+          <t>SVD,Service Grip,#2</t>
         </is>
       </c>
       <c r="E32" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F32" s="10" t="n">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>112.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="12" t="inlineStr">
         <is>
-          <t>Point 28</t>
+          <t>Point 27</t>
         </is>
       </c>
       <c r="B33" s="12" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C33" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D33" s="12" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E33" s="12" t="inlineStr">
@@ -1339,11 +1339,11 @@
         </is>
       </c>
       <c r="F33" s="13" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="G33" s="13" t="inlineStr"/>
       <c r="H33" s="14" t="n">
-        <v>60.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="B34" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>ARM-8S-60S-C</t>
         </is>
       </c>
       <c r="C34" s="9" t="inlineStr">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="D34" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>ARM,8ft Single Wood,60in Sgl.Wd,Corr</t>
         </is>
       </c>
       <c r="E34" s="9" t="inlineStr">
@@ -1373,11 +1373,11 @@
         </is>
       </c>
       <c r="F34" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G34" s="10" t="inlineStr"/>
       <c r="H34" s="11" t="n">
-        <v>93.23999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1388,7 +1388,7 @@
       </c>
       <c r="B35" s="12" t="inlineStr">
         <is>
-          <t>PIN-XAL-C</t>
+          <t>CON-2-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C35" s="12" t="inlineStr">
@@ -1398,283 +1398,283 @@
       </c>
       <c r="D35" s="12" t="inlineStr">
         <is>
-          <t>Pin,Crossarm Light,Corrosive</t>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
         </is>
       </c>
       <c r="E35" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F35" s="13" t="n">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="G35" s="13" t="inlineStr"/>
       <c r="H35" s="14" t="n">
-        <v>93.23999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="15" t="inlineStr">
+      <c r="A36" s="9" t="inlineStr">
+        <is>
+          <t>Point 28</t>
+        </is>
+      </c>
+      <c r="B36" s="9" t="inlineStr">
+        <is>
+          <t>GND-CR-4</t>
+        </is>
+      </c>
+      <c r="C36" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>GND,Cu Clad Rod,#4</t>
+        </is>
+      </c>
+      <c r="E36" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F36" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="10" t="inlineStr"/>
+      <c r="H36" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="12" t="inlineStr">
+        <is>
+          <t>Point 28</t>
+        </is>
+      </c>
+      <c r="B37" s="12" t="inlineStr">
+        <is>
+          <t>GND-MD</t>
+        </is>
+      </c>
+      <c r="C37" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D37" s="12" t="inlineStr">
+        <is>
+          <t>GND,Wire Mldg Only</t>
+        </is>
+      </c>
+      <c r="E37" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F37" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="13" t="inlineStr"/>
+      <c r="H37" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="9" t="inlineStr">
+        <is>
+          <t>Point 28</t>
+        </is>
+      </c>
+      <c r="B38" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C38" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E38" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F38" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G38" s="10" t="inlineStr"/>
+      <c r="H38" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="12" t="inlineStr">
+        <is>
+          <t>Point 28</t>
+        </is>
+      </c>
+      <c r="B39" s="12" t="inlineStr">
+        <is>
+          <t>PIN-XAL-C</t>
+        </is>
+      </c>
+      <c r="C39" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D39" s="12" t="inlineStr">
+        <is>
+          <t>Pin,Crossarm Light,Corrosive</t>
+        </is>
+      </c>
+      <c r="E39" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F39" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G39" s="13" t="inlineStr"/>
+      <c r="H39" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="9" t="inlineStr">
+        <is>
+          <t>Point 28</t>
+        </is>
+      </c>
+      <c r="B40" s="9" t="inlineStr">
+        <is>
+          <t>PLD-EYE-C</t>
+        </is>
+      </c>
+      <c r="C40" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>PLD,Eyebolt Deadend,Corrosive</t>
+        </is>
+      </c>
+      <c r="E40" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F40" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" s="10" t="inlineStr"/>
+      <c r="H40" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="12" t="inlineStr">
+        <is>
+          <t>Point 28</t>
+        </is>
+      </c>
+      <c r="B41" s="12" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C41" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D41" s="12" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E41" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F41" s="13" t="n">
+        <v>24</v>
+      </c>
+      <c r="G41" s="13" t="inlineStr"/>
+      <c r="H41" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H36" s="16" t="n">
-        <v>4417.16</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="7" t="inlineStr">
+      <c r="H42" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="7" t="inlineStr">
         <is>
           <t>Tuesday (07/29/2025)</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="8" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="8" t="inlineStr">
         <is>
           <t>Point Number</t>
         </is>
       </c>
-      <c r="B40" s="8" t="inlineStr">
+      <c r="B46" s="8" t="inlineStr">
         <is>
           <t>Billable Unit Code</t>
         </is>
       </c>
-      <c r="C40" s="8" t="inlineStr">
+      <c r="C46" s="8" t="inlineStr">
         <is>
           <t>Work Type</t>
         </is>
       </c>
-      <c r="D40" s="8" t="inlineStr">
+      <c r="D46" s="8" t="inlineStr">
         <is>
           <t>Unit Description</t>
         </is>
       </c>
-      <c r="E40" s="8" t="inlineStr">
+      <c r="E46" s="8" t="inlineStr">
         <is>
           <t>Unit of Measure</t>
         </is>
       </c>
-      <c r="F40" s="8" t="inlineStr">
+      <c r="F46" s="8" t="inlineStr">
         <is>
           <t># Units</t>
         </is>
       </c>
-      <c r="G40" s="8" t="inlineStr">
+      <c r="G46" s="8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H40" s="8" t="inlineStr">
+      <c r="H46" s="8" t="inlineStr">
         <is>
           <t>Pricing</t>
         </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="9" t="inlineStr">
-        <is>
-          <t>Point 17</t>
-        </is>
-      </c>
-      <c r="B41" s="9" t="inlineStr">
-        <is>
-          <t>PLA-DLOC</t>
-        </is>
-      </c>
-      <c r="C41" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D41" s="9" t="inlineStr">
-        <is>
-          <t>PLA,Difficult Location</t>
-        </is>
-      </c>
-      <c r="E41" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F41" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G41" s="10" t="inlineStr"/>
-      <c r="H41" s="11" t="n">
-        <v>119.1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="12" t="inlineStr">
-        <is>
-          <t>Point 17</t>
-        </is>
-      </c>
-      <c r="B42" s="12" t="inlineStr">
-        <is>
-          <t>PLA-CUT</t>
-        </is>
-      </c>
-      <c r="C42" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D42" s="12" t="inlineStr">
-        <is>
-          <t>PLA,Cut Off Pole Top</t>
-        </is>
-      </c>
-      <c r="E42" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F42" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G42" s="13" t="inlineStr"/>
-      <c r="H42" s="14" t="n">
-        <v>216.17</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="9" t="inlineStr">
-        <is>
-          <t>Point 17</t>
-        </is>
-      </c>
-      <c r="B43" s="9" t="inlineStr">
-        <is>
-          <t>PLA-HDIG</t>
-        </is>
-      </c>
-      <c r="C43" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D43" s="9" t="inlineStr">
-        <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
-        </is>
-      </c>
-      <c r="E43" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F43" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G43" s="10" t="inlineStr"/>
-      <c r="H43" s="11" t="n">
-        <v>648.53</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="12" t="inlineStr">
-        <is>
-          <t>Point 17</t>
-        </is>
-      </c>
-      <c r="B44" s="12" t="inlineStr">
-        <is>
-          <t>ARM-8SF-GN-TL-C</t>
-        </is>
-      </c>
-      <c r="C44" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D44" s="12" t="inlineStr">
-        <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
-        </is>
-      </c>
-      <c r="E44" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F44" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G44" s="13" t="inlineStr"/>
-      <c r="H44" s="14" t="n">
-        <v>350.53</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="9" t="inlineStr">
-        <is>
-          <t>Point 17</t>
-        </is>
-      </c>
-      <c r="B45" s="9" t="inlineStr">
-        <is>
-          <t>BKT-AC18-F-C</t>
-        </is>
-      </c>
-      <c r="C45" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D45" s="9" t="inlineStr">
-        <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
-        </is>
-      </c>
-      <c r="E45" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F45" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G45" s="10" t="inlineStr"/>
-      <c r="H45" s="11" t="n">
-        <v>63.44</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="12" t="inlineStr">
-        <is>
-          <t>Point 17</t>
-        </is>
-      </c>
-      <c r="B46" s="12" t="inlineStr">
-        <is>
-          <t>EQL-3-4-C-2-S-X</t>
-        </is>
-      </c>
-      <c r="C46" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D46" s="12" t="inlineStr">
-        <is>
-          <t>EQL,3 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
-        </is>
-      </c>
-      <c r="E46" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F46" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G46" s="13" t="inlineStr"/>
-      <c r="H46" s="14" t="n">
-        <v>670</v>
       </c>
     </row>
     <row r="47">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="B47" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>PLA-DLOC</t>
         </is>
       </c>
       <c r="C47" s="9" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="D47" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>PLA,Difficult Location</t>
         </is>
       </c>
       <c r="E47" s="9" t="inlineStr">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="G47" s="10" t="inlineStr"/>
       <c r="H47" s="11" t="n">
-        <v>110.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1719,7 +1719,7 @@
       </c>
       <c r="B48" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PLA-CUT</t>
         </is>
       </c>
       <c r="C48" s="12" t="inlineStr">
@@ -1729,7 +1729,7 @@
       </c>
       <c r="D48" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>PLA,Cut Off Pole Top</t>
         </is>
       </c>
       <c r="E48" s="12" t="inlineStr">
@@ -1738,11 +1738,11 @@
         </is>
       </c>
       <c r="F48" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G48" s="13" t="inlineStr"/>
       <c r="H48" s="14" t="n">
-        <v>188.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="B49" s="9" t="inlineStr">
         <is>
-          <t>PIN-XAL-C</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C49" s="9" t="inlineStr">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="D49" s="9" t="inlineStr">
         <is>
-          <t>Pin,Crossarm Light,Corrosive</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E49" s="9" t="inlineStr">
@@ -1772,11 +1772,11 @@
         </is>
       </c>
       <c r="F49" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G49" s="10" t="inlineStr"/>
       <c r="H49" s="11" t="n">
-        <v>188.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1787,7 +1787,7 @@
       </c>
       <c r="B50" s="12" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>ARM-8SF-GN-TL-C</t>
         </is>
       </c>
       <c r="C50" s="12" t="inlineStr">
@@ -1797,7 +1797,7 @@
       </c>
       <c r="D50" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
         </is>
       </c>
       <c r="E50" s="12" t="inlineStr">
@@ -1810,7 +1810,7 @@
       </c>
       <c r="G50" s="13" t="inlineStr"/>
       <c r="H50" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="B51" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>BKT-AC18-F-C</t>
         </is>
       </c>
       <c r="C51" s="9" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="D51" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E51" s="9" t="inlineStr">
@@ -1840,11 +1840,11 @@
         </is>
       </c>
       <c r="F51" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G51" s="10" t="inlineStr"/>
       <c r="H51" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1855,7 +1855,7 @@
       </c>
       <c r="B52" s="12" t="inlineStr">
         <is>
-          <t>SAA-DE-20-C</t>
+          <t>CND-HLC2</t>
         </is>
       </c>
       <c r="C52" s="12" t="inlineStr">
@@ -1865,7 +1865,7 @@
       </c>
       <c r="D52" s="12" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0, Corr.</t>
+          <t>CND,Hot Line clamp #6-#2</t>
         </is>
       </c>
       <c r="E52" s="12" t="inlineStr">
@@ -1874,11 +1874,11 @@
         </is>
       </c>
       <c r="F52" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G52" s="13" t="inlineStr"/>
       <c r="H52" s="14" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1889,7 +1889,7 @@
       </c>
       <c r="B53" s="9" t="inlineStr">
         <is>
-          <t>SAA-SP-336</t>
+          <t>EQL-3-4-C-2-S-X</t>
         </is>
       </c>
       <c r="C53" s="9" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="D53" s="9" t="inlineStr">
         <is>
-          <t>SAA,Spreader Bkt, 336MCM Max</t>
+          <t>EQL,3 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
         </is>
       </c>
       <c r="E53" s="9" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="G53" s="10" t="inlineStr"/>
       <c r="H53" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1923,17 +1923,17 @@
       </c>
       <c r="B54" s="12" t="inlineStr">
         <is>
-          <t>SVC-2-TP-AAA-RS</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C54" s="12" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D54" s="12" t="inlineStr">
         <is>
-          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E54" s="12" t="inlineStr">
@@ -1946,7 +1946,7 @@
       </c>
       <c r="G54" s="13" t="inlineStr"/>
       <c r="H54" s="14" t="n">
-        <v>195.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1957,7 +1957,7 @@
       </c>
       <c r="B55" s="9" t="inlineStr">
         <is>
-          <t>SVD-3-CV-C</t>
+          <t>GND-MD</t>
         </is>
       </c>
       <c r="C55" s="9" t="inlineStr">
@@ -1967,7 +1967,7 @@
       </c>
       <c r="D55" s="9" t="inlineStr">
         <is>
-          <t>SVD,3 inch,Clevis,Corr</t>
+          <t>GND,Wire Mldg Only</t>
         </is>
       </c>
       <c r="E55" s="9" t="inlineStr">
@@ -1976,11 +1976,11 @@
         </is>
       </c>
       <c r="F55" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G55" s="10" t="inlineStr"/>
       <c r="H55" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1991,7 +1991,7 @@
       </c>
       <c r="B56" s="12" t="inlineStr">
         <is>
-          <t>SVD-SG2</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C56" s="12" t="inlineStr">
@@ -2001,7 +2001,7 @@
       </c>
       <c r="D56" s="12" t="inlineStr">
         <is>
-          <t>SVD,Service Grip,#2</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E56" s="12" t="inlineStr">
@@ -2010,11 +2010,11 @@
         </is>
       </c>
       <c r="F56" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G56" s="13" t="inlineStr"/>
       <c r="H56" s="14" t="n">
-        <v>286.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2025,7 +2025,7 @@
       </c>
       <c r="B57" s="9" t="inlineStr">
         <is>
-          <t>XCO-27-100-8-C</t>
+          <t>PIN-XAL-C</t>
         </is>
       </c>
       <c r="C57" s="9" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="D57" s="9" t="inlineStr">
         <is>
-          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
+          <t>Pin,Crossarm Light,Corrosive</t>
         </is>
       </c>
       <c r="E57" s="9" t="inlineStr">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="G57" s="10" t="inlineStr"/>
       <c r="H57" s="11" t="n">
-        <v>124.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2059,17 +2059,17 @@
       </c>
       <c r="B58" s="12" t="inlineStr">
         <is>
-          <t>XFR-10-72-120-1B-S</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C58" s="12" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D58" s="12" t="inlineStr">
         <is>
-          <t>XFR,10KVA,7.2/12.4kVY,120/240,1BG,SS</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E58" s="12" t="inlineStr">
@@ -2082,28 +2082,28 @@
       </c>
       <c r="G58" s="13" t="inlineStr"/>
       <c r="H58" s="14" t="n">
-        <v>203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="9" t="inlineStr">
         <is>
-          <t>Point 18</t>
+          <t>Point 17</t>
         </is>
       </c>
       <c r="B59" s="9" t="inlineStr">
         <is>
-          <t>ARM-8S-60S-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C59" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D59" s="9" t="inlineStr">
         <is>
-          <t>ARM,8ft Single Wood,60in Sgl.Wd,Corr</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E59" s="9" t="inlineStr">
@@ -2116,28 +2116,28 @@
       </c>
       <c r="G59" s="10" t="inlineStr"/>
       <c r="H59" s="11" t="n">
-        <v>61.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="12" t="inlineStr">
         <is>
-          <t>Point 18</t>
+          <t>Point 17</t>
         </is>
       </c>
       <c r="B60" s="12" t="inlineStr">
         <is>
-          <t>BKT-AC18-F-C</t>
+          <t>SAA-DE-20-C</t>
         </is>
       </c>
       <c r="C60" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D60" s="12" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
+          <t>SAA,DE Clamp #4-2/0, Corr.</t>
         </is>
       </c>
       <c r="E60" s="12" t="inlineStr">
@@ -2146,32 +2146,32 @@
         </is>
       </c>
       <c r="F60" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G60" s="13" t="inlineStr"/>
       <c r="H60" s="14" t="n">
-        <v>34.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="9" t="inlineStr">
         <is>
-          <t>Point 18</t>
+          <t>Point 17</t>
         </is>
       </c>
       <c r="B61" s="9" t="inlineStr">
         <is>
-          <t>EQL-3-4-C-2-S-X</t>
+          <t>SAA-SP-336</t>
         </is>
       </c>
       <c r="C61" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D61" s="9" t="inlineStr">
         <is>
-          <t>EQL,3 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
+          <t>SAA,Spreader Bkt, 336MCM Max</t>
         </is>
       </c>
       <c r="E61" s="9" t="inlineStr">
@@ -2184,28 +2184,28 @@
       </c>
       <c r="G61" s="10" t="inlineStr"/>
       <c r="H61" s="11" t="n">
-        <v>340</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="12" t="inlineStr">
         <is>
-          <t>Point 18</t>
+          <t>Point 17</t>
         </is>
       </c>
       <c r="B62" s="12" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>SVC-2-TP-AAA-RS</t>
         </is>
       </c>
       <c r="C62" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D62" s="12" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
         </is>
       </c>
       <c r="E62" s="12" t="inlineStr">
@@ -2218,28 +2218,28 @@
       </c>
       <c r="G62" s="13" t="inlineStr"/>
       <c r="H62" s="14" t="n">
-        <v>60.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="9" t="inlineStr">
         <is>
-          <t>Point 18</t>
+          <t>Point 17</t>
         </is>
       </c>
       <c r="B63" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SVC-VA</t>
         </is>
       </c>
       <c r="C63" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D63" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SVC-Virtual Asset Capitalization</t>
         </is>
       </c>
       <c r="E63" s="9" t="inlineStr">
@@ -2248,32 +2248,32 @@
         </is>
       </c>
       <c r="F63" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G63" s="10" t="inlineStr"/>
       <c r="H63" s="11" t="n">
-        <v>62.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="12" t="inlineStr">
         <is>
-          <t>Point 18</t>
+          <t>Point 17</t>
         </is>
       </c>
       <c r="B64" s="12" t="inlineStr">
         <is>
-          <t>PIN-XAL-C</t>
+          <t>SVD-3-CV-C</t>
         </is>
       </c>
       <c r="C64" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D64" s="12" t="inlineStr">
         <is>
-          <t>Pin,Crossarm Light,Corrosive</t>
+          <t>SVD,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E64" s="12" t="inlineStr">
@@ -2282,32 +2282,32 @@
         </is>
       </c>
       <c r="F64" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G64" s="13" t="inlineStr"/>
       <c r="H64" s="14" t="n">
-        <v>62.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="9" t="inlineStr">
         <is>
-          <t>Point 18</t>
+          <t>Point 17</t>
         </is>
       </c>
       <c r="B65" s="9" t="inlineStr">
         <is>
-          <t>POL-40-5</t>
+          <t>SVD-SG2</t>
         </is>
       </c>
       <c r="C65" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D65" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 5</t>
+          <t>SVD,Service Grip,#2</t>
         </is>
       </c>
       <c r="E65" s="9" t="inlineStr">
@@ -2320,28 +2320,28 @@
       </c>
       <c r="G65" s="10" t="inlineStr"/>
       <c r="H65" s="11" t="n">
-        <v>198.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="12" t="inlineStr">
         <is>
-          <t>Point 18</t>
+          <t>Point 17</t>
         </is>
       </c>
       <c r="B66" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C66" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D66" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E66" s="12" t="inlineStr">
@@ -2350,32 +2350,32 @@
         </is>
       </c>
       <c r="F66" s="13" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G66" s="13" t="inlineStr"/>
       <c r="H66" s="14" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="9" t="inlineStr">
         <is>
-          <t>Point 18</t>
+          <t>Point 17</t>
         </is>
       </c>
       <c r="B67" s="9" t="inlineStr">
         <is>
-          <t>SAA-DE-20-C</t>
+          <t>XCO-27-100-8-C</t>
         </is>
       </c>
       <c r="C67" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D67" s="9" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0, Corr.</t>
+          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
         </is>
       </c>
       <c r="E67" s="9" t="inlineStr">
@@ -2384,32 +2384,32 @@
         </is>
       </c>
       <c r="F67" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G67" s="10" t="inlineStr"/>
       <c r="H67" s="11" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="12" t="inlineStr">
         <is>
-          <t>Point 18</t>
+          <t>Point 17</t>
         </is>
       </c>
       <c r="B68" s="12" t="inlineStr">
         <is>
-          <t>SVD-3-CV-C</t>
+          <t>XFR-10-72-120-1B-S</t>
         </is>
       </c>
       <c r="C68" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D68" s="12" t="inlineStr">
         <is>
-          <t>SVD,3 inch,Clevis,Corr</t>
+          <t>XFR,10KVA,7.2/12.4kVY,120/240,1BG,SS</t>
         </is>
       </c>
       <c r="E68" s="12" t="inlineStr">
@@ -2422,7 +2422,7 @@
       </c>
       <c r="G68" s="13" t="inlineStr"/>
       <c r="H68" s="14" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2433,7 +2433,7 @@
       </c>
       <c r="B69" s="9" t="inlineStr">
         <is>
-          <t>SVD-SG2</t>
+          <t>ARM-8S-60S-C</t>
         </is>
       </c>
       <c r="C69" s="9" t="inlineStr">
@@ -2443,7 +2443,7 @@
       </c>
       <c r="D69" s="9" t="inlineStr">
         <is>
-          <t>SVD,Service Grip,#2</t>
+          <t>ARM,8ft Single Wood,60in Sgl.Wd,Corr</t>
         </is>
       </c>
       <c r="E69" s="9" t="inlineStr">
@@ -2456,7 +2456,7 @@
       </c>
       <c r="G69" s="10" t="inlineStr"/>
       <c r="H69" s="11" t="n">
-        <v>95.15000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2467,7 +2467,7 @@
       </c>
       <c r="B70" s="12" t="inlineStr">
         <is>
-          <t>XCO-27-100-8-C</t>
+          <t>BKT-AC18-F-C</t>
         </is>
       </c>
       <c r="C70" s="12" t="inlineStr">
@@ -2477,7 +2477,7 @@
       </c>
       <c r="D70" s="12" t="inlineStr">
         <is>
-          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E70" s="12" t="inlineStr">
@@ -2490,28 +2490,28 @@
       </c>
       <c r="G70" s="13" t="inlineStr"/>
       <c r="H70" s="14" t="n">
-        <v>53.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="9" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 18</t>
         </is>
       </c>
       <c r="B71" s="9" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-TL-C</t>
+          <t>EQL-3-4-C-2-S-X</t>
         </is>
       </c>
       <c r="C71" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D71" s="9" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
+          <t>EQL,3 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
         </is>
       </c>
       <c r="E71" s="9" t="inlineStr">
@@ -2524,87 +2524,198 @@
       </c>
       <c r="G71" s="10" t="inlineStr"/>
       <c r="H71" s="11" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="15" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="H72" s="16" t="n">
-        <v>5434.899999999999</v>
+      <c r="A72" s="12" t="inlineStr">
+        <is>
+          <t>Point 18</t>
+        </is>
+      </c>
+      <c r="B72" s="12" t="inlineStr">
+        <is>
+          <t>GND-CR-4</t>
+        </is>
+      </c>
+      <c r="C72" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D72" s="12" t="inlineStr">
+        <is>
+          <t>GND,Cu Clad Rod,#4</t>
+        </is>
+      </c>
+      <c r="E72" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F72" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G72" s="13" t="inlineStr"/>
+      <c r="H72" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="9" t="inlineStr">
+        <is>
+          <t>Point 18</t>
+        </is>
+      </c>
+      <c r="B73" s="9" t="inlineStr">
+        <is>
+          <t>GND-MD</t>
+        </is>
+      </c>
+      <c r="C73" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D73" s="9" t="inlineStr">
+        <is>
+          <t>GND,Wire Mldg Only</t>
+        </is>
+      </c>
+      <c r="E73" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F73" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G73" s="10" t="inlineStr"/>
+      <c r="H73" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="12" t="inlineStr">
+        <is>
+          <t>Point 18</t>
+        </is>
+      </c>
+      <c r="B74" s="12" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C74" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D74" s="12" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E74" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F74" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G74" s="13" t="inlineStr"/>
+      <c r="H74" s="14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="7" t="inlineStr">
-        <is>
-          <t>Wednesday (07/30/2025)</t>
-        </is>
+      <c r="A75" s="9" t="inlineStr">
+        <is>
+          <t>Point 18</t>
+        </is>
+      </c>
+      <c r="B75" s="9" t="inlineStr">
+        <is>
+          <t>PIN-XAL-C</t>
+        </is>
+      </c>
+      <c r="C75" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D75" s="9" t="inlineStr">
+        <is>
+          <t>Pin,Crossarm Light,Corrosive</t>
+        </is>
+      </c>
+      <c r="E75" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F75" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G75" s="10" t="inlineStr"/>
+      <c r="H75" s="11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="8" t="inlineStr">
-        <is>
-          <t>Point Number</t>
-        </is>
-      </c>
-      <c r="B76" s="8" t="inlineStr">
-        <is>
-          <t>Billable Unit Code</t>
-        </is>
-      </c>
-      <c r="C76" s="8" t="inlineStr">
-        <is>
-          <t>Work Type</t>
-        </is>
-      </c>
-      <c r="D76" s="8" t="inlineStr">
-        <is>
-          <t>Unit Description</t>
-        </is>
-      </c>
-      <c r="E76" s="8" t="inlineStr">
-        <is>
-          <t>Unit of Measure</t>
-        </is>
-      </c>
-      <c r="F76" s="8" t="inlineStr">
-        <is>
-          <t># Units</t>
-        </is>
-      </c>
-      <c r="G76" s="8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H76" s="8" t="inlineStr">
-        <is>
-          <t>Pricing</t>
-        </is>
+      <c r="A76" s="12" t="inlineStr">
+        <is>
+          <t>Point 18</t>
+        </is>
+      </c>
+      <c r="B76" s="12" t="inlineStr">
+        <is>
+          <t>POL-40-5</t>
+        </is>
+      </c>
+      <c r="C76" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D76" s="12" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 5</t>
+        </is>
+      </c>
+      <c r="E76" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F76" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G76" s="13" t="inlineStr"/>
+      <c r="H76" s="14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="9" t="inlineStr">
         <is>
-          <t>Point 25</t>
+          <t>Point 18</t>
         </is>
       </c>
       <c r="B77" s="9" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C77" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D77" s="9" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E77" s="9" t="inlineStr">
@@ -2617,28 +2728,28 @@
       </c>
       <c r="G77" s="10" t="inlineStr"/>
       <c r="H77" s="11" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="12" t="inlineStr">
         <is>
-          <t>Point 25</t>
+          <t>Point 18</t>
         </is>
       </c>
       <c r="B78" s="12" t="inlineStr">
         <is>
-          <t>SVC-10-TP-AAA-RS</t>
+          <t>SAA-DE-20-C</t>
         </is>
       </c>
       <c r="C78" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D78" s="12" t="inlineStr">
         <is>
-          <t>SVC,1/0,Trip,All Alum,Res</t>
+          <t>SAA,DE Clamp #4-2/0, Corr.</t>
         </is>
       </c>
       <c r="E78" s="12" t="inlineStr">
@@ -2651,28 +2762,28 @@
       </c>
       <c r="G78" s="13" t="inlineStr"/>
       <c r="H78" s="14" t="n">
-        <v>256.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="9" t="inlineStr">
         <is>
-          <t>Point 25</t>
+          <t>Point 18</t>
         </is>
       </c>
       <c r="B79" s="9" t="inlineStr">
         <is>
-          <t>DEG-10-SNA</t>
+          <t>SVC-VA</t>
         </is>
       </c>
       <c r="C79" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D79" s="9" t="inlineStr">
         <is>
-          <t>DEG,1/0,Secondary Neutral Al</t>
+          <t>SVC-Virtual Asset Capitalization</t>
         </is>
       </c>
       <c r="E79" s="9" t="inlineStr">
@@ -2681,22 +2792,22 @@
         </is>
       </c>
       <c r="F79" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G79" s="10" t="inlineStr"/>
       <c r="H79" s="11" t="n">
-        <v>572.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="12" t="inlineStr">
         <is>
-          <t>Point 25</t>
+          <t>Point 18</t>
         </is>
       </c>
       <c r="B80" s="12" t="inlineStr">
         <is>
-          <t>DEG-10-SNA</t>
+          <t>SVD-3-CV-C</t>
         </is>
       </c>
       <c r="C80" s="12" t="inlineStr">
@@ -2706,7 +2817,7 @@
       </c>
       <c r="D80" s="12" t="inlineStr">
         <is>
-          <t>DEG,1/0,Secondary Neutral Al</t>
+          <t>SVD,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E80" s="12" t="inlineStr">
@@ -2715,22 +2826,22 @@
         </is>
       </c>
       <c r="F80" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G80" s="13" t="inlineStr"/>
       <c r="H80" s="14" t="n">
-        <v>190.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="9" t="inlineStr">
         <is>
-          <t>Point 25</t>
+          <t>Point 18</t>
         </is>
       </c>
       <c r="B81" s="9" t="inlineStr">
         <is>
-          <t>SVC-10-TP-AAL-RS</t>
+          <t>SVD-SG2</t>
         </is>
       </c>
       <c r="C81" s="9" t="inlineStr">
@@ -2740,7 +2851,7 @@
       </c>
       <c r="D81" s="9" t="inlineStr">
         <is>
-          <t>SVC,1/0,Trip,All Alum,Res</t>
+          <t>SVD,Service Grip,#2</t>
         </is>
       </c>
       <c r="E81" s="9" t="inlineStr">
@@ -2753,28 +2864,28 @@
       </c>
       <c r="G81" s="10" t="inlineStr"/>
       <c r="H81" s="11" t="n">
-        <v>48.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="12" t="inlineStr">
         <is>
-          <t>Point 25</t>
+          <t>Point 18</t>
         </is>
       </c>
       <c r="B82" s="12" t="inlineStr">
         <is>
-          <t>CNC-HTA-10</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C82" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D82" s="12" t="inlineStr">
         <is>
-          <t>Compression connector H-Tap Assembly 1/0</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E82" s="12" t="inlineStr">
@@ -2783,144 +2894,144 @@
         </is>
       </c>
       <c r="F82" s="13" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="G82" s="13" t="inlineStr"/>
       <c r="H82" s="14" t="n">
-        <v>66.98999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="15" t="inlineStr">
+      <c r="A83" s="9" t="inlineStr">
+        <is>
+          <t>Point 18</t>
+        </is>
+      </c>
+      <c r="B83" s="9" t="inlineStr">
+        <is>
+          <t>XCO-27-100-8-C</t>
+        </is>
+      </c>
+      <c r="C83" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D83" s="9" t="inlineStr">
+        <is>
+          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
+        </is>
+      </c>
+      <c r="E83" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F83" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G83" s="10" t="inlineStr"/>
+      <c r="H83" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="12" t="inlineStr">
+        <is>
+          <t>Point 19</t>
+        </is>
+      </c>
+      <c r="B84" s="12" t="inlineStr">
+        <is>
+          <t>ARM-8SF-GN-TL-C</t>
+        </is>
+      </c>
+      <c r="C84" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D84" s="12" t="inlineStr">
+        <is>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
+        </is>
+      </c>
+      <c r="E84" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F84" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G84" s="13" t="inlineStr"/>
+      <c r="H84" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H83" s="16" t="n">
-        <v>1782.51</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="7" t="inlineStr">
-        <is>
-          <t>Thursday (07/31/2025)</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="8" t="inlineStr">
+      <c r="H85" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="7" t="inlineStr">
+        <is>
+          <t>Wednesday (07/30/2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="8" t="inlineStr">
         <is>
           <t>Point Number</t>
         </is>
       </c>
-      <c r="B87" s="8" t="inlineStr">
+      <c r="B89" s="8" t="inlineStr">
         <is>
           <t>Billable Unit Code</t>
         </is>
       </c>
-      <c r="C87" s="8" t="inlineStr">
+      <c r="C89" s="8" t="inlineStr">
         <is>
           <t>Work Type</t>
         </is>
       </c>
-      <c r="D87" s="8" t="inlineStr">
+      <c r="D89" s="8" t="inlineStr">
         <is>
           <t>Unit Description</t>
         </is>
       </c>
-      <c r="E87" s="8" t="inlineStr">
+      <c r="E89" s="8" t="inlineStr">
         <is>
           <t>Unit of Measure</t>
         </is>
       </c>
-      <c r="F87" s="8" t="inlineStr">
+      <c r="F89" s="8" t="inlineStr">
         <is>
           <t># Units</t>
         </is>
       </c>
-      <c r="G87" s="8" t="inlineStr">
+      <c r="G89" s="8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H87" s="8" t="inlineStr">
+      <c r="H89" s="8" t="inlineStr">
         <is>
           <t>Pricing</t>
         </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="9" t="inlineStr">
-        <is>
-          <t>Point 26</t>
-        </is>
-      </c>
-      <c r="B88" s="9" t="inlineStr">
-        <is>
-          <t>PLA-CUT</t>
-        </is>
-      </c>
-      <c r="C88" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D88" s="9" t="inlineStr">
-        <is>
-          <t>PLA,Cut Off Pole Top</t>
-        </is>
-      </c>
-      <c r="E88" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F88" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G88" s="10" t="inlineStr"/>
-      <c r="H88" s="11" t="n">
-        <v>216.17</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="12" t="inlineStr">
-        <is>
-          <t>Point 29</t>
-        </is>
-      </c>
-      <c r="B89" s="12" t="inlineStr">
-        <is>
-          <t>PLA-CUT</t>
-        </is>
-      </c>
-      <c r="C89" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D89" s="12" t="inlineStr">
-        <is>
-          <t>PLA,Cut Off Pole Top</t>
-        </is>
-      </c>
-      <c r="E89" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F89" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G89" s="13" t="inlineStr"/>
-      <c r="H89" s="14" t="n">
-        <v>216.17</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="9" t="inlineStr">
         <is>
-          <t>Point 29</t>
+          <t>Point 25</t>
         </is>
       </c>
       <c r="B90" s="9" t="inlineStr">
@@ -2948,28 +3059,28 @@
       </c>
       <c r="G90" s="10" t="inlineStr"/>
       <c r="H90" s="11" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="12" t="inlineStr">
         <is>
-          <t>Point 30</t>
+          <t>Point 25</t>
         </is>
       </c>
       <c r="B91" s="12" t="inlineStr">
         <is>
-          <t>PLA-CUT</t>
+          <t>SVC-10-TP-AAA-RS</t>
         </is>
       </c>
       <c r="C91" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D91" s="12" t="inlineStr">
         <is>
-          <t>PLA,Cut Off Pole Top</t>
+          <t>SVC,1/0,Trip,All Alum,Res</t>
         </is>
       </c>
       <c r="E91" s="12" t="inlineStr">
@@ -2982,52 +3093,52 @@
       </c>
       <c r="G91" s="13" t="inlineStr"/>
       <c r="H91" s="14" t="n">
-        <v>216.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="9" t="inlineStr">
         <is>
-          <t>Point 02</t>
+          <t>Point 25</t>
         </is>
       </c>
       <c r="B92" s="9" t="inlineStr">
         <is>
-          <t>CON-2-AAA-1-B-REEL</t>
+          <t>DEG-10-SNA</t>
         </is>
       </c>
       <c r="C92" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D92" s="9" t="inlineStr">
         <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+          <t>DEG,1/0,Secondary Neutral Al</t>
         </is>
       </c>
       <c r="E92" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F92" s="10" t="n">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="G92" s="10" t="inlineStr"/>
       <c r="H92" s="11" t="n">
-        <v>72.54000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="12" t="inlineStr">
         <is>
-          <t>Point 04</t>
+          <t>Point 25</t>
         </is>
       </c>
       <c r="B93" s="12" t="inlineStr">
         <is>
-          <t>CON-2-AAA-1-B-REEL</t>
+          <t>DEG-10-SNA</t>
         </is>
       </c>
       <c r="C93" s="12" t="inlineStr">
@@ -3037,31 +3148,31 @@
       </c>
       <c r="D93" s="12" t="inlineStr">
         <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+          <t>DEG,1/0,Secondary Neutral Al</t>
         </is>
       </c>
       <c r="E93" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F93" s="13" t="n">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="G93" s="13" t="inlineStr"/>
       <c r="H93" s="14" t="n">
-        <v>91.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="9" t="inlineStr">
         <is>
-          <t>Point 06</t>
+          <t>Point 25</t>
         </is>
       </c>
       <c r="B94" s="9" t="inlineStr">
         <is>
-          <t>CON-2-AAA-1-B-REEL</t>
+          <t>SVC-10-TP-AAL-RS</t>
         </is>
       </c>
       <c r="C94" s="9" t="inlineStr">
@@ -3071,833 +3182,1300 @@
       </c>
       <c r="D94" s="9" t="inlineStr">
         <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+          <t>SVC,1/0,Trip,All Alum,Res</t>
         </is>
       </c>
       <c r="E94" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F94" s="10" t="n">
-        <v>172</v>
+        <v>1</v>
       </c>
       <c r="G94" s="10" t="inlineStr"/>
       <c r="H94" s="11" t="n">
-        <v>159.96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="12" t="inlineStr">
         <is>
-          <t>Point 08</t>
+          <t>Point 25</t>
         </is>
       </c>
       <c r="B95" s="12" t="inlineStr">
         <is>
-          <t>CON-2-AAA-1-B-REEL</t>
+          <t>CNC-HTA-10</t>
         </is>
       </c>
       <c r="C95" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D95" s="12" t="inlineStr">
         <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+          <t>Compression connector H-Tap Assembly 1/0</t>
         </is>
       </c>
       <c r="E95" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F95" s="13" t="n">
-        <v>103</v>
+        <v>7</v>
       </c>
       <c r="G95" s="13" t="inlineStr"/>
       <c r="H95" s="14" t="n">
-        <v>95.79000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="9" t="inlineStr">
+      <c r="A96" s="15" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H96" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="7" t="inlineStr">
+        <is>
+          <t>Thursday (07/31/2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B100" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C100" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D100" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E100" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F100" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G100" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H100" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="9" t="inlineStr">
+        <is>
+          <t>Point 26</t>
+        </is>
+      </c>
+      <c r="B101" s="9" t="inlineStr">
+        <is>
+          <t>PLA-CUT</t>
+        </is>
+      </c>
+      <c r="C101" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D101" s="9" t="inlineStr">
+        <is>
+          <t>PLA,Cut Off Pole Top</t>
+        </is>
+      </c>
+      <c r="E101" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F101" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G101" s="10" t="inlineStr"/>
+      <c r="H101" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="12" t="inlineStr">
+        <is>
+          <t>Point 29</t>
+        </is>
+      </c>
+      <c r="B102" s="12" t="inlineStr">
+        <is>
+          <t>PLA-CUT</t>
+        </is>
+      </c>
+      <c r="C102" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D102" s="12" t="inlineStr">
+        <is>
+          <t>PLA,Cut Off Pole Top</t>
+        </is>
+      </c>
+      <c r="E102" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F102" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G102" s="13" t="inlineStr"/>
+      <c r="H102" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="9" t="inlineStr">
+        <is>
+          <t>Point 29</t>
+        </is>
+      </c>
+      <c r="B103" s="9" t="inlineStr">
+        <is>
+          <t>PLA-HDIG</t>
+        </is>
+      </c>
+      <c r="C103" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D103" s="9" t="inlineStr">
+        <is>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
+        </is>
+      </c>
+      <c r="E103" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F103" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G103" s="10" t="inlineStr"/>
+      <c r="H103" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="12" t="inlineStr">
+        <is>
+          <t>Point 30</t>
+        </is>
+      </c>
+      <c r="B104" s="12" t="inlineStr">
+        <is>
+          <t>PLA-CUT</t>
+        </is>
+      </c>
+      <c r="C104" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D104" s="12" t="inlineStr">
+        <is>
+          <t>PLA,Cut Off Pole Top</t>
+        </is>
+      </c>
+      <c r="E104" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F104" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G104" s="13" t="inlineStr"/>
+      <c r="H104" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="9" t="inlineStr">
+        <is>
+          <t>Point 02</t>
+        </is>
+      </c>
+      <c r="B105" s="9" t="inlineStr">
+        <is>
+          <t>CON-2-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C105" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D105" s="9" t="inlineStr">
+        <is>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+        </is>
+      </c>
+      <c r="E105" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F105" s="10" t="n">
+        <v>78</v>
+      </c>
+      <c r="G105" s="10" t="inlineStr"/>
+      <c r="H105" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="12" t="inlineStr">
+        <is>
+          <t>Point 04</t>
+        </is>
+      </c>
+      <c r="B106" s="12" t="inlineStr">
+        <is>
+          <t>CON-2-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C106" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D106" s="12" t="inlineStr">
+        <is>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+        </is>
+      </c>
+      <c r="E106" s="12" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F106" s="13" t="n">
+        <v>98</v>
+      </c>
+      <c r="G106" s="13" t="inlineStr"/>
+      <c r="H106" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="9" t="inlineStr">
+        <is>
+          <t>Point 06</t>
+        </is>
+      </c>
+      <c r="B107" s="9" t="inlineStr">
+        <is>
+          <t>CON-2-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C107" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D107" s="9" t="inlineStr">
+        <is>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+        </is>
+      </c>
+      <c r="E107" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F107" s="10" t="n">
+        <v>172</v>
+      </c>
+      <c r="G107" s="10" t="inlineStr"/>
+      <c r="H107" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="12" t="inlineStr">
+        <is>
+          <t>Point 08</t>
+        </is>
+      </c>
+      <c r="B108" s="12" t="inlineStr">
+        <is>
+          <t>CON-2-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C108" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D108" s="12" t="inlineStr">
+        <is>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+        </is>
+      </c>
+      <c r="E108" s="12" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F108" s="13" t="n">
+        <v>103</v>
+      </c>
+      <c r="G108" s="13" t="inlineStr"/>
+      <c r="H108" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="9" t="inlineStr">
         <is>
           <t>Point 10</t>
         </is>
       </c>
-      <c r="B96" s="9" t="inlineStr">
+      <c r="B109" s="9" t="inlineStr">
         <is>
           <t>CON-2-AAA-1-B-REEL</t>
         </is>
       </c>
-      <c r="C96" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D96" s="9" t="inlineStr">
+      <c r="C109" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D109" s="9" t="inlineStr">
         <is>
           <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
         </is>
       </c>
-      <c r="E96" s="9" t="inlineStr">
+      <c r="E109" s="9" t="inlineStr">
         <is>
           <t>FT</t>
         </is>
       </c>
-      <c r="F96" s="10" t="n">
+      <c r="F109" s="10" t="n">
         <v>119</v>
       </c>
-      <c r="G96" s="10" t="inlineStr"/>
-      <c r="H96" s="11" t="n">
-        <v>110.67</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="12" t="inlineStr">
+      <c r="G109" s="10" t="inlineStr"/>
+      <c r="H109" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="12" t="inlineStr">
         <is>
           <t>Point 16</t>
         </is>
       </c>
-      <c r="B97" s="12" t="inlineStr">
+      <c r="B110" s="12" t="inlineStr">
         <is>
           <t>CON-4-AAA-1-B</t>
         </is>
       </c>
-      <c r="C97" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D97" s="12" t="inlineStr">
+      <c r="C110" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D110" s="12" t="inlineStr">
         <is>
           <t>CON,#4 AWG,Alum Alloy,One,Bare</t>
         </is>
       </c>
-      <c r="E97" s="12" t="inlineStr">
+      <c r="E110" s="12" t="inlineStr">
         <is>
           <t>FT</t>
         </is>
       </c>
-      <c r="F97" s="13" t="n">
+      <c r="F110" s="13" t="n">
         <v>276</v>
       </c>
-      <c r="G97" s="13" t="inlineStr"/>
-      <c r="H97" s="14" t="n">
-        <v>256.68</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="9" t="inlineStr">
+      <c r="G110" s="13" t="inlineStr"/>
+      <c r="H110" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="9" t="inlineStr">
         <is>
           <t>Point 16</t>
         </is>
       </c>
-      <c r="B98" s="9" t="inlineStr">
+      <c r="B111" s="9" t="inlineStr">
         <is>
           <t>CON-4-CHD-1-B</t>
         </is>
       </c>
-      <c r="C98" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D98" s="9" t="inlineStr">
+      <c r="C111" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D111" s="9" t="inlineStr">
         <is>
           <t>CON,#4,CU Hard Dr,One,Bare(Rem+Spl only)</t>
         </is>
       </c>
-      <c r="E98" s="9" t="inlineStr">
+      <c r="E111" s="9" t="inlineStr">
         <is>
           <t>FT</t>
         </is>
       </c>
-      <c r="F98" s="10" t="n">
+      <c r="F111" s="10" t="n">
         <v>495</v>
       </c>
-      <c r="G98" s="10" t="inlineStr"/>
-      <c r="H98" s="11" t="n">
-        <v>460.35</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="12" t="inlineStr">
+      <c r="G111" s="10" t="inlineStr"/>
+      <c r="H111" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="12" t="inlineStr">
         <is>
           <t>Point 18</t>
         </is>
       </c>
-      <c r="B99" s="12" t="inlineStr">
+      <c r="B112" s="12" t="inlineStr">
         <is>
           <t>CON-4-AAA-1-B</t>
         </is>
       </c>
-      <c r="C99" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D99" s="12" t="inlineStr">
+      <c r="C112" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D112" s="12" t="inlineStr">
         <is>
           <t>CON,#4 AWG,Alum Alloy,One,Bare</t>
         </is>
       </c>
-      <c r="E99" s="12" t="inlineStr">
+      <c r="E112" s="12" t="inlineStr">
         <is>
           <t>FT</t>
         </is>
       </c>
-      <c r="F99" s="13" t="n">
+      <c r="F112" s="13" t="n">
         <v>114</v>
       </c>
-      <c r="G99" s="13" t="inlineStr"/>
-      <c r="H99" s="14" t="n">
-        <v>106.02</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="9" t="inlineStr">
+      <c r="G112" s="13" t="inlineStr"/>
+      <c r="H112" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="9" t="inlineStr">
         <is>
           <t>Point 20</t>
         </is>
       </c>
-      <c r="B100" s="9" t="inlineStr">
+      <c r="B113" s="9" t="inlineStr">
         <is>
           <t>CON-4-AAA-1-B</t>
         </is>
       </c>
-      <c r="C100" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D100" s="9" t="inlineStr">
+      <c r="C113" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D113" s="9" t="inlineStr">
         <is>
           <t>CON,#4 AWG,Alum Alloy,One,Bare</t>
         </is>
       </c>
-      <c r="E100" s="9" t="inlineStr">
+      <c r="E113" s="9" t="inlineStr">
         <is>
           <t>FT</t>
         </is>
       </c>
-      <c r="F100" s="10" t="n">
+      <c r="F113" s="10" t="n">
         <v>246</v>
       </c>
-      <c r="G100" s="10" t="inlineStr"/>
-      <c r="H100" s="11" t="n">
-        <v>228.78</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="12" t="inlineStr">
+      <c r="G113" s="10" t="inlineStr"/>
+      <c r="H113" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="12" t="inlineStr">
         <is>
           <t>Point 25</t>
         </is>
       </c>
-      <c r="B101" s="12" t="inlineStr">
+      <c r="B114" s="12" t="inlineStr">
         <is>
           <t>ARM-8SF-GN-TL-C</t>
         </is>
       </c>
-      <c r="C101" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D101" s="12" t="inlineStr">
+      <c r="C114" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D114" s="12" t="inlineStr">
         <is>
           <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
         </is>
       </c>
-      <c r="E101" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F101" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G101" s="13" t="inlineStr"/>
-      <c r="H101" s="14" t="n">
-        <v>350.53</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="9" t="inlineStr">
+      <c r="E114" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F114" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G114" s="13" t="inlineStr"/>
+      <c r="H114" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="9" t="inlineStr">
         <is>
           <t>Point 25</t>
         </is>
       </c>
-      <c r="B102" s="9" t="inlineStr">
+      <c r="B115" s="9" t="inlineStr">
         <is>
           <t>INS-15-P-S-C</t>
         </is>
       </c>
-      <c r="C102" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D102" s="9" t="inlineStr">
+      <c r="C115" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D115" s="9" t="inlineStr">
         <is>
           <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
-      <c r="E102" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F102" s="10" t="n">
+      <c r="E115" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F115" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="G102" s="10" t="inlineStr"/>
-      <c r="H102" s="11" t="n">
-        <v>282.51</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="12" t="inlineStr">
+      <c r="G115" s="10" t="inlineStr"/>
+      <c r="H115" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="12" t="inlineStr">
         <is>
           <t>Point 25</t>
         </is>
       </c>
-      <c r="B103" s="12" t="inlineStr">
+      <c r="B116" s="12" t="inlineStr">
         <is>
           <t>PIN-XAL-C</t>
         </is>
       </c>
-      <c r="C103" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D103" s="12" t="inlineStr">
+      <c r="C116" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D116" s="12" t="inlineStr">
         <is>
           <t>Pin,Crossarm Light,Corrosive</t>
         </is>
       </c>
-      <c r="E103" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F103" s="13" t="n">
+      <c r="E116" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F116" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="G103" s="13" t="inlineStr"/>
-      <c r="H103" s="14" t="n">
-        <v>282.51</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="9" t="inlineStr">
+      <c r="G116" s="13" t="inlineStr"/>
+      <c r="H116" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="9" t="inlineStr">
         <is>
           <t>Point 25</t>
         </is>
       </c>
-      <c r="B104" s="9" t="inlineStr">
+      <c r="B117" s="9" t="inlineStr">
+        <is>
+          <t>PLD-EYE-C</t>
+        </is>
+      </c>
+      <c r="C117" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D117" s="9" t="inlineStr">
+        <is>
+          <t>PLD,Eyebolt Deadend,Corrosive</t>
+        </is>
+      </c>
+      <c r="E117" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F117" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G117" s="10" t="inlineStr"/>
+      <c r="H117" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="12" t="inlineStr">
+        <is>
+          <t>Point 25</t>
+        </is>
+      </c>
+      <c r="B118" s="12" t="inlineStr">
         <is>
           <t>POL-40-1</t>
         </is>
       </c>
-      <c r="C104" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D104" s="9" t="inlineStr">
+      <c r="C118" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D118" s="12" t="inlineStr">
         <is>
           <t>Pole,40ft,Class 1</t>
         </is>
       </c>
-      <c r="E104" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F104" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G104" s="10" t="inlineStr"/>
-      <c r="H104" s="11" t="n">
-        <v>478.55</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="12" t="inlineStr">
+      <c r="E118" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F118" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G118" s="13" t="inlineStr"/>
+      <c r="H118" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="9" t="inlineStr">
+        <is>
+          <t>Point 25</t>
+        </is>
+      </c>
+      <c r="B119" s="9" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C119" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D119" s="9" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E119" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F119" s="10" t="n">
+        <v>24</v>
+      </c>
+      <c r="G119" s="10" t="inlineStr"/>
+      <c r="H119" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="12" t="inlineStr">
         <is>
           <t>Point 26</t>
         </is>
       </c>
-      <c r="B105" s="12" t="inlineStr">
+      <c r="B120" s="12" t="inlineStr">
         <is>
           <t>ARM-8S-60S-C</t>
         </is>
       </c>
-      <c r="C105" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D105" s="12" t="inlineStr">
+      <c r="C120" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D120" s="12" t="inlineStr">
         <is>
           <t>ARM,8ft Single Wood,60in Sgl.Wd,Corr</t>
         </is>
       </c>
-      <c r="E105" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F105" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G105" s="13" t="inlineStr"/>
-      <c r="H105" s="14" t="n">
-        <v>61.83</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="9" t="inlineStr">
+      <c r="E120" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F120" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G120" s="13" t="inlineStr"/>
+      <c r="H120" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="9" t="inlineStr">
         <is>
           <t>Point 26</t>
         </is>
       </c>
-      <c r="B106" s="9" t="inlineStr">
+      <c r="B121" s="9" t="inlineStr">
         <is>
           <t>INS-15-P-S-C</t>
         </is>
       </c>
-      <c r="C106" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D106" s="9" t="inlineStr">
+      <c r="C121" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D121" s="9" t="inlineStr">
         <is>
           <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
-      <c r="E106" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F106" s="10" t="n">
+      <c r="E121" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F121" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="G106" s="10" t="inlineStr"/>
-      <c r="H106" s="11" t="n">
-        <v>93.23999999999999</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="12" t="inlineStr">
+      <c r="G121" s="10" t="inlineStr"/>
+      <c r="H121" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="12" t="inlineStr">
         <is>
           <t>Point 26</t>
         </is>
       </c>
-      <c r="B107" s="12" t="inlineStr">
+      <c r="B122" s="12" t="inlineStr">
         <is>
           <t>PIN-XAL-C</t>
         </is>
       </c>
-      <c r="C107" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D107" s="12" t="inlineStr">
+      <c r="C122" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D122" s="12" t="inlineStr">
         <is>
           <t>Pin,Crossarm Light,Corrosive</t>
         </is>
       </c>
-      <c r="E107" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F107" s="13" t="n">
+      <c r="E122" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F122" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="G107" s="13" t="inlineStr"/>
-      <c r="H107" s="14" t="n">
-        <v>93.23999999999999</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="9" t="inlineStr">
+      <c r="G122" s="13" t="inlineStr"/>
+      <c r="H122" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="9" t="inlineStr">
         <is>
           <t>Point 26</t>
         </is>
       </c>
-      <c r="B108" s="9" t="inlineStr">
+      <c r="B123" s="9" t="inlineStr">
+        <is>
+          <t>PLD-EYE-C</t>
+        </is>
+      </c>
+      <c r="C123" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D123" s="9" t="inlineStr">
+        <is>
+          <t>PLD,Eyebolt Deadend,Corrosive</t>
+        </is>
+      </c>
+      <c r="E123" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F123" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G123" s="10" t="inlineStr"/>
+      <c r="H123" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="12" t="inlineStr">
+        <is>
+          <t>Point 26</t>
+        </is>
+      </c>
+      <c r="B124" s="12" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C124" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D124" s="12" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E124" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F124" s="13" t="n">
+        <v>24</v>
+      </c>
+      <c r="G124" s="13" t="inlineStr"/>
+      <c r="H124" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="9" t="inlineStr">
+        <is>
+          <t>Point 26</t>
+        </is>
+      </c>
+      <c r="B125" s="9" t="inlineStr">
         <is>
           <t>XCO-27-100-8-C</t>
         </is>
       </c>
-      <c r="C108" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D108" s="9" t="inlineStr">
+      <c r="C125" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D125" s="9" t="inlineStr">
         <is>
           <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
         </is>
       </c>
-      <c r="E108" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F108" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G108" s="10" t="inlineStr"/>
-      <c r="H108" s="11" t="n">
-        <v>26.52</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="12" t="inlineStr">
+      <c r="E125" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F125" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G125" s="10" t="inlineStr"/>
+      <c r="H125" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="12" t="inlineStr">
         <is>
           <t>Point 27</t>
         </is>
       </c>
-      <c r="B109" s="12" t="inlineStr">
+      <c r="B126" s="12" t="inlineStr">
         <is>
           <t>INS-15-P-S-C</t>
         </is>
       </c>
-      <c r="C109" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D109" s="12" t="inlineStr">
+      <c r="C126" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D126" s="12" t="inlineStr">
         <is>
           <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
-      <c r="E109" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F109" s="13" t="n">
+      <c r="E126" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F126" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="G109" s="13" t="inlineStr"/>
-      <c r="H109" s="14" t="n">
-        <v>282.51</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="9" t="inlineStr">
+      <c r="G126" s="13" t="inlineStr"/>
+      <c r="H126" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="9" t="inlineStr">
         <is>
           <t>Point 27</t>
         </is>
       </c>
-      <c r="B110" s="9" t="inlineStr">
+      <c r="B127" s="9" t="inlineStr">
         <is>
           <t>PIN-XAL-C</t>
         </is>
       </c>
-      <c r="C110" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D110" s="9" t="inlineStr">
+      <c r="C127" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D127" s="9" t="inlineStr">
         <is>
           <t>Pin,Crossarm Light,Corrosive</t>
         </is>
       </c>
-      <c r="E110" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F110" s="10" t="n">
+      <c r="E127" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F127" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="G110" s="10" t="inlineStr"/>
-      <c r="H110" s="11" t="n">
-        <v>282.51</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="12" t="inlineStr">
+      <c r="G127" s="10" t="inlineStr"/>
+      <c r="H127" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="12" t="inlineStr">
         <is>
           <t>Point 27</t>
         </is>
       </c>
-      <c r="B111" s="12" t="inlineStr">
+      <c r="B128" s="12" t="inlineStr">
         <is>
           <t>POL-40-2</t>
         </is>
       </c>
-      <c r="C111" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D111" s="12" t="inlineStr">
+      <c r="C128" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D128" s="12" t="inlineStr">
         <is>
           <t>Pole,40ft,Class 2</t>
         </is>
       </c>
-      <c r="E111" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F111" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G111" s="13" t="inlineStr"/>
-      <c r="H111" s="14" t="n">
-        <v>478.55</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="9" t="inlineStr">
+      <c r="E128" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F128" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G128" s="13" t="inlineStr"/>
+      <c r="H128" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="9" t="inlineStr">
         <is>
           <t>Point 28</t>
         </is>
       </c>
-      <c r="B112" s="9" t="inlineStr">
+      <c r="B129" s="9" t="inlineStr">
         <is>
           <t>POL-40-4</t>
         </is>
       </c>
-      <c r="C112" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D112" s="9" t="inlineStr">
+      <c r="C129" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D129" s="9" t="inlineStr">
         <is>
           <t>Pole,40ft,Class 4</t>
         </is>
       </c>
-      <c r="E112" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F112" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G112" s="10" t="inlineStr"/>
-      <c r="H112" s="11" t="n">
-        <v>198.88</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="12" t="inlineStr">
+      <c r="E129" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F129" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G129" s="10" t="inlineStr"/>
+      <c r="H129" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="12" t="inlineStr">
         <is>
           <t>Point 29</t>
         </is>
       </c>
-      <c r="B113" s="12" t="inlineStr">
+      <c r="B130" s="12" t="inlineStr">
         <is>
           <t>ARM-8SF-GN-TL-C</t>
         </is>
       </c>
-      <c r="C113" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D113" s="12" t="inlineStr">
+      <c r="C130" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D130" s="12" t="inlineStr">
         <is>
           <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
         </is>
       </c>
-      <c r="E113" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F113" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G113" s="13" t="inlineStr"/>
-      <c r="H113" s="14" t="n">
-        <v>350.53</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="9" t="inlineStr">
+      <c r="E130" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F130" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G130" s="13" t="inlineStr"/>
+      <c r="H130" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="9" t="inlineStr">
         <is>
           <t>Point 29</t>
         </is>
       </c>
-      <c r="B114" s="9" t="inlineStr">
+      <c r="B131" s="9" t="inlineStr">
         <is>
           <t>INS-15-P-S-C</t>
         </is>
       </c>
-      <c r="C114" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D114" s="9" t="inlineStr">
+      <c r="C131" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D131" s="9" t="inlineStr">
         <is>
           <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
-      <c r="E114" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F114" s="10" t="n">
+      <c r="E131" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F131" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="G114" s="10" t="inlineStr"/>
-      <c r="H114" s="11" t="n">
-        <v>282.51</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="12" t="inlineStr">
+      <c r="G131" s="10" t="inlineStr"/>
+      <c r="H131" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="12" t="inlineStr">
         <is>
           <t>Point 29</t>
         </is>
       </c>
-      <c r="B115" s="12" t="inlineStr">
+      <c r="B132" s="12" t="inlineStr">
         <is>
           <t>PIN-15-PTP-C</t>
         </is>
       </c>
-      <c r="C115" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D115" s="12" t="inlineStr">
+      <c r="C132" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D132" s="12" t="inlineStr">
         <is>
           <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
-      <c r="E115" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F115" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G115" s="13" t="inlineStr"/>
-      <c r="H115" s="14" t="n">
-        <v>94.17</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="9" t="inlineStr">
+      <c r="E132" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F132" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G132" s="13" t="inlineStr"/>
+      <c r="H132" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="9" t="inlineStr">
         <is>
           <t>Point 29</t>
         </is>
       </c>
-      <c r="B116" s="9" t="inlineStr">
+      <c r="B133" s="9" t="inlineStr">
         <is>
           <t>PIN-XAL-C</t>
         </is>
       </c>
-      <c r="C116" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D116" s="9" t="inlineStr">
+      <c r="C133" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D133" s="9" t="inlineStr">
         <is>
           <t>Pin,Crossarm Light,Corrosive</t>
         </is>
       </c>
-      <c r="E116" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F116" s="10" t="n">
+      <c r="E133" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F133" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="G116" s="10" t="inlineStr"/>
-      <c r="H116" s="11" t="n">
-        <v>188.34</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="12" t="inlineStr">
+      <c r="G133" s="10" t="inlineStr"/>
+      <c r="H133" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="12" t="inlineStr">
         <is>
           <t>Point 29</t>
         </is>
       </c>
-      <c r="B117" s="12" t="inlineStr">
+      <c r="B134" s="12" t="inlineStr">
         <is>
           <t>POL-40-1</t>
         </is>
       </c>
-      <c r="C117" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D117" s="12" t="inlineStr">
+      <c r="C134" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D134" s="12" t="inlineStr">
         <is>
           <t>Pole,40ft,Class 1</t>
         </is>
       </c>
-      <c r="E117" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F117" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G117" s="13" t="inlineStr"/>
-      <c r="H117" s="14" t="n">
-        <v>478.55</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="15" t="inlineStr">
+      <c r="E134" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F134" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G134" s="13" t="inlineStr"/>
+      <c r="H134" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H118" s="16" t="n">
-        <v>7184.450000000002</v>
+      <c r="H135" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A36:G36"/>
     <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A39:H39"/>
-    <mergeCell ref="A86:H86"/>
-    <mergeCell ref="A118:G118"/>
+    <mergeCell ref="A135:G135"/>
+    <mergeCell ref="A88:H88"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A83:G83"/>
+    <mergeCell ref="A99:H99"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A96:G96"/>
     <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A72:G72"/>
     <mergeCell ref="G12:I12"/>
-    <mergeCell ref="A75:H75"/>
+    <mergeCell ref="A45:H45"/>
     <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A85:G85"/>
+    <mergeCell ref="A42:G42"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>

--- a/generated_docs/WR_89877351_WeekEnding_080325.xlsx
+++ b/generated_docs/WR_89877351_WeekEnding_080325.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I135"/>
+  <dimension ref="A2:I118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/18/2025 09:48 PM</t>
+          <t>Report Generated On: 08/26/2025 10:01 AM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0</v>
+        <v>18819.02</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -643,11 +643,7 @@
           <t>Scope ID #:</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>R25P17</t>
-        </is>
-      </c>
+      <c r="G10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="F11" s="4" t="inlineStr">
@@ -765,7 +761,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +795,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>0</v>
+        <v>216.17</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +829,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>0</v>
+        <v>216.17</v>
       </c>
     </row>
     <row r="19">
@@ -867,7 +863,7 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>0</v>
+        <v>216.17</v>
       </c>
     </row>
     <row r="20">
@@ -901,7 +897,7 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>0</v>
+        <v>216.17</v>
       </c>
     </row>
     <row r="21">
@@ -935,7 +931,7 @@
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>0</v>
+        <v>572.5</v>
       </c>
     </row>
     <row r="22">
@@ -969,7 +965,7 @@
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>0</v>
+        <v>216.17</v>
       </c>
     </row>
     <row r="23">
@@ -1003,7 +999,7 @@
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>0</v>
+        <v>216.17</v>
       </c>
     </row>
     <row r="24">
@@ -1037,7 +1033,7 @@
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>0</v>
+        <v>216.17</v>
       </c>
     </row>
     <row r="25">
@@ -1071,7 +1067,7 @@
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>0</v>
+        <v>216.17</v>
       </c>
     </row>
     <row r="26">
@@ -1105,7 +1101,7 @@
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>0</v>
+        <v>216.17</v>
       </c>
     </row>
     <row r="27">
@@ -1139,7 +1135,7 @@
       </c>
       <c r="G27" s="13" t="inlineStr"/>
       <c r="H27" s="14" t="n">
-        <v>0</v>
+        <v>216.17</v>
       </c>
     </row>
     <row r="28">
@@ -1173,7 +1169,7 @@
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>0</v>
+        <v>216.17</v>
       </c>
     </row>
     <row r="29">
@@ -1207,7 +1203,7 @@
       </c>
       <c r="G29" s="13" t="inlineStr"/>
       <c r="H29" s="14" t="n">
-        <v>0</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="30">
@@ -1218,7 +1214,7 @@
       </c>
       <c r="B30" s="9" t="inlineStr">
         <is>
-          <t>GND-MD</t>
+          <t>SVD-SG2</t>
         </is>
       </c>
       <c r="C30" s="9" t="inlineStr">
@@ -1228,7 +1224,7 @@
       </c>
       <c r="D30" s="9" t="inlineStr">
         <is>
-          <t>GND,Wire Mldg Only</t>
+          <t>SVD,Service Grip,#2</t>
         </is>
       </c>
       <c r="E30" s="9" t="inlineStr">
@@ -1237,32 +1233,32 @@
         </is>
       </c>
       <c r="F30" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>0</v>
+        <v>286.25</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="12" t="inlineStr">
         <is>
-          <t>Point 27</t>
+          <t>Point 28</t>
         </is>
       </c>
       <c r="B31" s="12" t="inlineStr">
         <is>
-          <t>PLD-EYE-C</t>
+          <t>ARM-8S-60S-C</t>
         </is>
       </c>
       <c r="C31" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D31" s="12" t="inlineStr">
         <is>
-          <t>PLD,Eyebolt Deadend,Corrosive</t>
+          <t>ARM,8ft Single Wood,60in Sgl.Wd,Corr</t>
         </is>
       </c>
       <c r="E31" s="12" t="inlineStr">
@@ -1275,62 +1271,62 @@
       </c>
       <c r="G31" s="13" t="inlineStr"/>
       <c r="H31" s="14" t="n">
-        <v>0</v>
+        <v>61.83</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="9" t="inlineStr">
         <is>
-          <t>Point 27</t>
+          <t>Point 28</t>
         </is>
       </c>
       <c r="B32" s="9" t="inlineStr">
         <is>
-          <t>SVD-SG2</t>
+          <t>CON-2-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C32" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D32" s="9" t="inlineStr">
         <is>
-          <t>SVD,Service Grip,#2</t>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
         </is>
       </c>
       <c r="E32" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F32" s="10" t="n">
-        <v>1</v>
+        <v>121</v>
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>0</v>
+        <v>112.53</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="12" t="inlineStr">
         <is>
-          <t>Point 27</t>
+          <t>Point 28</t>
         </is>
       </c>
       <c r="B33" s="12" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C33" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D33" s="12" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E33" s="12" t="inlineStr">
@@ -1339,11 +1335,11 @@
         </is>
       </c>
       <c r="F33" s="13" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="G33" s="13" t="inlineStr"/>
       <c r="H33" s="14" t="n">
-        <v>0</v>
+        <v>60.43</v>
       </c>
     </row>
     <row r="34">
@@ -1354,7 +1350,7 @@
       </c>
       <c r="B34" s="9" t="inlineStr">
         <is>
-          <t>ARM-8S-60S-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C34" s="9" t="inlineStr">
@@ -1364,7 +1360,7 @@
       </c>
       <c r="D34" s="9" t="inlineStr">
         <is>
-          <t>ARM,8ft Single Wood,60in Sgl.Wd,Corr</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E34" s="9" t="inlineStr">
@@ -1373,11 +1369,11 @@
         </is>
       </c>
       <c r="F34" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G34" s="10" t="inlineStr"/>
       <c r="H34" s="11" t="n">
-        <v>0</v>
+        <v>93.23999999999999</v>
       </c>
     </row>
     <row r="35">
@@ -1388,7 +1384,7 @@
       </c>
       <c r="B35" s="12" t="inlineStr">
         <is>
-          <t>CON-2-AAA-1-B-REEL</t>
+          <t>PIN-XAL-C</t>
         </is>
       </c>
       <c r="C35" s="12" t="inlineStr">
@@ -1398,283 +1394,283 @@
       </c>
       <c r="D35" s="12" t="inlineStr">
         <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+          <t>Pin,Crossarm Light,Corrosive</t>
         </is>
       </c>
       <c r="E35" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F35" s="13" t="n">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="G35" s="13" t="inlineStr"/>
       <c r="H35" s="14" t="n">
-        <v>0</v>
+        <v>93.23999999999999</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="9" t="inlineStr">
-        <is>
-          <t>Point 28</t>
-        </is>
-      </c>
-      <c r="B36" s="9" t="inlineStr">
-        <is>
-          <t>GND-CR-4</t>
-        </is>
-      </c>
-      <c r="C36" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D36" s="9" t="inlineStr">
-        <is>
-          <t>GND,Cu Clad Rod,#4</t>
-        </is>
-      </c>
-      <c r="E36" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F36" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" s="10" t="inlineStr"/>
-      <c r="H36" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="12" t="inlineStr">
-        <is>
-          <t>Point 28</t>
-        </is>
-      </c>
-      <c r="B37" s="12" t="inlineStr">
-        <is>
-          <t>GND-MD</t>
-        </is>
-      </c>
-      <c r="C37" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D37" s="12" t="inlineStr">
-        <is>
-          <t>GND,Wire Mldg Only</t>
-        </is>
-      </c>
-      <c r="E37" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F37" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" s="13" t="inlineStr"/>
-      <c r="H37" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="9" t="inlineStr">
-        <is>
-          <t>Point 28</t>
-        </is>
-      </c>
-      <c r="B38" s="9" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C38" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D38" s="9" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E38" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F38" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G38" s="10" t="inlineStr"/>
-      <c r="H38" s="11" t="n">
-        <v>0</v>
+      <c r="A36" s="15" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H36" s="16" t="n">
+        <v>4417.16</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="12" t="inlineStr">
-        <is>
-          <t>Point 28</t>
-        </is>
-      </c>
-      <c r="B39" s="12" t="inlineStr">
-        <is>
-          <t>PIN-XAL-C</t>
-        </is>
-      </c>
-      <c r="C39" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D39" s="12" t="inlineStr">
-        <is>
-          <t>Pin,Crossarm Light,Corrosive</t>
-        </is>
-      </c>
-      <c r="E39" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F39" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="G39" s="13" t="inlineStr"/>
-      <c r="H39" s="14" t="n">
-        <v>0</v>
+      <c r="A39" s="7" t="inlineStr">
+        <is>
+          <t>Tuesday (07/29/2025)</t>
+        </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="9" t="inlineStr">
-        <is>
-          <t>Point 28</t>
-        </is>
-      </c>
-      <c r="B40" s="9" t="inlineStr">
-        <is>
-          <t>PLD-EYE-C</t>
-        </is>
-      </c>
-      <c r="C40" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D40" s="9" t="inlineStr">
-        <is>
-          <t>PLD,Eyebolt Deadend,Corrosive</t>
-        </is>
-      </c>
-      <c r="E40" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F40" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G40" s="10" t="inlineStr"/>
-      <c r="H40" s="11" t="n">
-        <v>0</v>
+      <c r="A40" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B40" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D40" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F40" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H40" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="12" t="inlineStr">
-        <is>
-          <t>Point 28</t>
-        </is>
-      </c>
-      <c r="B41" s="12" t="inlineStr">
-        <is>
-          <t>TIE-4-ALH-F</t>
-        </is>
-      </c>
-      <c r="C41" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D41" s="12" t="inlineStr">
-        <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
-        </is>
-      </c>
-      <c r="E41" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F41" s="13" t="n">
-        <v>24</v>
-      </c>
-      <c r="G41" s="13" t="inlineStr"/>
-      <c r="H41" s="14" t="n">
-        <v>0</v>
+      <c r="A41" s="9" t="inlineStr">
+        <is>
+          <t>Point 17</t>
+        </is>
+      </c>
+      <c r="B41" s="9" t="inlineStr">
+        <is>
+          <t>PLA-DLOC</t>
+        </is>
+      </c>
+      <c r="C41" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
+        <is>
+          <t>PLA,Difficult Location</t>
+        </is>
+      </c>
+      <c r="E41" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F41" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" s="10" t="inlineStr"/>
+      <c r="H41" s="11" t="n">
+        <v>119.1</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="15" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="H42" s="16" t="n">
-        <v>0</v>
+      <c r="A42" s="12" t="inlineStr">
+        <is>
+          <t>Point 17</t>
+        </is>
+      </c>
+      <c r="B42" s="12" t="inlineStr">
+        <is>
+          <t>PLA-CUT</t>
+        </is>
+      </c>
+      <c r="C42" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D42" s="12" t="inlineStr">
+        <is>
+          <t>PLA,Cut Off Pole Top</t>
+        </is>
+      </c>
+      <c r="E42" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F42" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" s="13" t="inlineStr"/>
+      <c r="H42" s="14" t="n">
+        <v>216.17</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="9" t="inlineStr">
+        <is>
+          <t>Point 17</t>
+        </is>
+      </c>
+      <c r="B43" s="9" t="inlineStr">
+        <is>
+          <t>PLA-HDIG</t>
+        </is>
+      </c>
+      <c r="C43" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D43" s="9" t="inlineStr">
+        <is>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
+        </is>
+      </c>
+      <c r="E43" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F43" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" s="10" t="inlineStr"/>
+      <c r="H43" s="11" t="n">
+        <v>648.53</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="12" t="inlineStr">
+        <is>
+          <t>Point 17</t>
+        </is>
+      </c>
+      <c r="B44" s="12" t="inlineStr">
+        <is>
+          <t>ARM-8SF-GN-TL-C</t>
+        </is>
+      </c>
+      <c r="C44" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D44" s="12" t="inlineStr">
+        <is>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
+        </is>
+      </c>
+      <c r="E44" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F44" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="13" t="inlineStr"/>
+      <c r="H44" s="14" t="n">
+        <v>350.53</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="7" t="inlineStr">
-        <is>
-          <t>Tuesday (07/29/2025)</t>
-        </is>
+      <c r="A45" s="9" t="inlineStr">
+        <is>
+          <t>Point 17</t>
+        </is>
+      </c>
+      <c r="B45" s="9" t="inlineStr">
+        <is>
+          <t>BKT-AC18-F-C</t>
+        </is>
+      </c>
+      <c r="C45" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D45" s="9" t="inlineStr">
+        <is>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
+        </is>
+      </c>
+      <c r="E45" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F45" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G45" s="10" t="inlineStr"/>
+      <c r="H45" s="11" t="n">
+        <v>63.44</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="8" t="inlineStr">
-        <is>
-          <t>Point Number</t>
-        </is>
-      </c>
-      <c r="B46" s="8" t="inlineStr">
-        <is>
-          <t>Billable Unit Code</t>
-        </is>
-      </c>
-      <c r="C46" s="8" t="inlineStr">
-        <is>
-          <t>Work Type</t>
-        </is>
-      </c>
-      <c r="D46" s="8" t="inlineStr">
-        <is>
-          <t>Unit Description</t>
-        </is>
-      </c>
-      <c r="E46" s="8" t="inlineStr">
-        <is>
-          <t>Unit of Measure</t>
-        </is>
-      </c>
-      <c r="F46" s="8" t="inlineStr">
-        <is>
-          <t># Units</t>
-        </is>
-      </c>
-      <c r="G46" s="8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H46" s="8" t="inlineStr">
-        <is>
-          <t>Pricing</t>
-        </is>
+      <c r="A46" s="12" t="inlineStr">
+        <is>
+          <t>Point 17</t>
+        </is>
+      </c>
+      <c r="B46" s="12" t="inlineStr">
+        <is>
+          <t>EQL-3-4-C-2-S-X</t>
+        </is>
+      </c>
+      <c r="C46" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D46" s="12" t="inlineStr">
+        <is>
+          <t>EQL,3 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
+        </is>
+      </c>
+      <c r="E46" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F46" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" s="13" t="inlineStr"/>
+      <c r="H46" s="14" t="n">
+        <v>670</v>
       </c>
     </row>
     <row r="47">
@@ -1685,7 +1681,7 @@
       </c>
       <c r="B47" s="9" t="inlineStr">
         <is>
-          <t>PLA-DLOC</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C47" s="9" t="inlineStr">
@@ -1695,7 +1691,7 @@
       </c>
       <c r="D47" s="9" t="inlineStr">
         <is>
-          <t>PLA,Difficult Location</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E47" s="9" t="inlineStr">
@@ -1708,7 +1704,7 @@
       </c>
       <c r="G47" s="10" t="inlineStr"/>
       <c r="H47" s="11" t="n">
-        <v>0</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="48">
@@ -1719,7 +1715,7 @@
       </c>
       <c r="B48" s="12" t="inlineStr">
         <is>
-          <t>PLA-CUT</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C48" s="12" t="inlineStr">
@@ -1729,7 +1725,7 @@
       </c>
       <c r="D48" s="12" t="inlineStr">
         <is>
-          <t>PLA,Cut Off Pole Top</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E48" s="12" t="inlineStr">
@@ -1738,11 +1734,11 @@
         </is>
       </c>
       <c r="F48" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G48" s="13" t="inlineStr"/>
       <c r="H48" s="14" t="n">
-        <v>0</v>
+        <v>188.34</v>
       </c>
     </row>
     <row r="49">
@@ -1753,7 +1749,7 @@
       </c>
       <c r="B49" s="9" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>PIN-XAL-C</t>
         </is>
       </c>
       <c r="C49" s="9" t="inlineStr">
@@ -1763,7 +1759,7 @@
       </c>
       <c r="D49" s="9" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>Pin,Crossarm Light,Corrosive</t>
         </is>
       </c>
       <c r="E49" s="9" t="inlineStr">
@@ -1772,11 +1768,11 @@
         </is>
       </c>
       <c r="F49" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G49" s="10" t="inlineStr"/>
       <c r="H49" s="11" t="n">
-        <v>0</v>
+        <v>188.34</v>
       </c>
     </row>
     <row r="50">
@@ -1787,7 +1783,7 @@
       </c>
       <c r="B50" s="12" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-TL-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C50" s="12" t="inlineStr">
@@ -1797,7 +1793,7 @@
       </c>
       <c r="D50" s="12" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E50" s="12" t="inlineStr">
@@ -1810,7 +1806,7 @@
       </c>
       <c r="G50" s="13" t="inlineStr"/>
       <c r="H50" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="51">
@@ -1821,7 +1817,7 @@
       </c>
       <c r="B51" s="9" t="inlineStr">
         <is>
-          <t>BKT-AC18-F-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C51" s="9" t="inlineStr">
@@ -1831,7 +1827,7 @@
       </c>
       <c r="D51" s="9" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E51" s="9" t="inlineStr">
@@ -1840,11 +1836,11 @@
         </is>
       </c>
       <c r="F51" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G51" s="10" t="inlineStr"/>
       <c r="H51" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="52">
@@ -1855,7 +1851,7 @@
       </c>
       <c r="B52" s="12" t="inlineStr">
         <is>
-          <t>CND-HLC2</t>
+          <t>SAA-DE-20-C</t>
         </is>
       </c>
       <c r="C52" s="12" t="inlineStr">
@@ -1865,7 +1861,7 @@
       </c>
       <c r="D52" s="12" t="inlineStr">
         <is>
-          <t>CND,Hot Line clamp #6-#2</t>
+          <t>SAA,DE Clamp #4-2/0, Corr.</t>
         </is>
       </c>
       <c r="E52" s="12" t="inlineStr">
@@ -1874,11 +1870,11 @@
         </is>
       </c>
       <c r="F52" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G52" s="13" t="inlineStr"/>
       <c r="H52" s="14" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="53">
@@ -1889,7 +1885,7 @@
       </c>
       <c r="B53" s="9" t="inlineStr">
         <is>
-          <t>EQL-3-4-C-2-S-X</t>
+          <t>SAA-SP-336</t>
         </is>
       </c>
       <c r="C53" s="9" t="inlineStr">
@@ -1899,7 +1895,7 @@
       </c>
       <c r="D53" s="9" t="inlineStr">
         <is>
-          <t>EQL,3 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
+          <t>SAA,Spreader Bkt, 336MCM Max</t>
         </is>
       </c>
       <c r="E53" s="9" t="inlineStr">
@@ -1912,7 +1908,7 @@
       </c>
       <c r="G53" s="10" t="inlineStr"/>
       <c r="H53" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="54">
@@ -1923,17 +1919,17 @@
       </c>
       <c r="B54" s="12" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>SVC-2-TP-AAA-RS</t>
         </is>
       </c>
       <c r="C54" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D54" s="12" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
         </is>
       </c>
       <c r="E54" s="12" t="inlineStr">
@@ -1946,7 +1942,7 @@
       </c>
       <c r="G54" s="13" t="inlineStr"/>
       <c r="H54" s="14" t="n">
-        <v>0</v>
+        <v>195.83</v>
       </c>
     </row>
     <row r="55">
@@ -1957,7 +1953,7 @@
       </c>
       <c r="B55" s="9" t="inlineStr">
         <is>
-          <t>GND-MD</t>
+          <t>SVD-3-CV-C</t>
         </is>
       </c>
       <c r="C55" s="9" t="inlineStr">
@@ -1967,7 +1963,7 @@
       </c>
       <c r="D55" s="9" t="inlineStr">
         <is>
-          <t>GND,Wire Mldg Only</t>
+          <t>SVD,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E55" s="9" t="inlineStr">
@@ -1976,11 +1972,11 @@
         </is>
       </c>
       <c r="F55" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G55" s="10" t="inlineStr"/>
       <c r="H55" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="56">
@@ -1991,7 +1987,7 @@
       </c>
       <c r="B56" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SVD-SG2</t>
         </is>
       </c>
       <c r="C56" s="12" t="inlineStr">
@@ -2001,7 +1997,7 @@
       </c>
       <c r="D56" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SVD,Service Grip,#2</t>
         </is>
       </c>
       <c r="E56" s="12" t="inlineStr">
@@ -2010,11 +2006,11 @@
         </is>
       </c>
       <c r="F56" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G56" s="13" t="inlineStr"/>
       <c r="H56" s="14" t="n">
-        <v>0</v>
+        <v>286.25</v>
       </c>
     </row>
     <row r="57">
@@ -2025,7 +2021,7 @@
       </c>
       <c r="B57" s="9" t="inlineStr">
         <is>
-          <t>PIN-XAL-C</t>
+          <t>XCO-27-100-8-C</t>
         </is>
       </c>
       <c r="C57" s="9" t="inlineStr">
@@ -2035,7 +2031,7 @@
       </c>
       <c r="D57" s="9" t="inlineStr">
         <is>
-          <t>Pin,Crossarm Light,Corrosive</t>
+          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
         </is>
       </c>
       <c r="E57" s="9" t="inlineStr">
@@ -2048,7 +2044,7 @@
       </c>
       <c r="G57" s="10" t="inlineStr"/>
       <c r="H57" s="11" t="n">
-        <v>0</v>
+        <v>124.84</v>
       </c>
     </row>
     <row r="58">
@@ -2059,17 +2055,17 @@
       </c>
       <c r="B58" s="12" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>XFR-10-72-120-1B-S</t>
         </is>
       </c>
       <c r="C58" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D58" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>XFR,10KVA,7.2/12.4kVY,120/240,1BG,SS</t>
         </is>
       </c>
       <c r="E58" s="12" t="inlineStr">
@@ -2082,28 +2078,28 @@
       </c>
       <c r="G58" s="13" t="inlineStr"/>
       <c r="H58" s="14" t="n">
-        <v>0</v>
+        <v>203</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="9" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 18</t>
         </is>
       </c>
       <c r="B59" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>ARM-8S-60S-C</t>
         </is>
       </c>
       <c r="C59" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D59" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>ARM,8ft Single Wood,60in Sgl.Wd,Corr</t>
         </is>
       </c>
       <c r="E59" s="9" t="inlineStr">
@@ -2116,28 +2112,28 @@
       </c>
       <c r="G59" s="10" t="inlineStr"/>
       <c r="H59" s="11" t="n">
-        <v>0</v>
+        <v>61.83</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="12" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 18</t>
         </is>
       </c>
       <c r="B60" s="12" t="inlineStr">
         <is>
-          <t>SAA-DE-20-C</t>
+          <t>BKT-AC18-F-C</t>
         </is>
       </c>
       <c r="C60" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D60" s="12" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0, Corr.</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E60" s="12" t="inlineStr">
@@ -2146,32 +2142,32 @@
         </is>
       </c>
       <c r="F60" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G60" s="13" t="inlineStr"/>
       <c r="H60" s="14" t="n">
-        <v>0</v>
+        <v>34.74</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="9" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 18</t>
         </is>
       </c>
       <c r="B61" s="9" t="inlineStr">
         <is>
-          <t>SAA-SP-336</t>
+          <t>EQL-3-4-C-2-S-X</t>
         </is>
       </c>
       <c r="C61" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D61" s="9" t="inlineStr">
         <is>
-          <t>SAA,Spreader Bkt, 336MCM Max</t>
+          <t>EQL,3 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
         </is>
       </c>
       <c r="E61" s="9" t="inlineStr">
@@ -2184,28 +2180,28 @@
       </c>
       <c r="G61" s="10" t="inlineStr"/>
       <c r="H61" s="11" t="n">
-        <v>0</v>
+        <v>340</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="12" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 18</t>
         </is>
       </c>
       <c r="B62" s="12" t="inlineStr">
         <is>
-          <t>SVC-2-TP-AAA-RS</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C62" s="12" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D62" s="12" t="inlineStr">
         <is>
-          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E62" s="12" t="inlineStr">
@@ -2218,28 +2214,28 @@
       </c>
       <c r="G62" s="13" t="inlineStr"/>
       <c r="H62" s="14" t="n">
-        <v>0</v>
+        <v>60.43</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="9" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 18</t>
         </is>
       </c>
       <c r="B63" s="9" t="inlineStr">
         <is>
-          <t>SVC-VA</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C63" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D63" s="9" t="inlineStr">
         <is>
-          <t>SVC-Virtual Asset Capitalization</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E63" s="9" t="inlineStr">
@@ -2248,32 +2244,32 @@
         </is>
       </c>
       <c r="F63" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G63" s="10" t="inlineStr"/>
       <c r="H63" s="11" t="n">
-        <v>0</v>
+        <v>62.16</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="12" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 18</t>
         </is>
       </c>
       <c r="B64" s="12" t="inlineStr">
         <is>
-          <t>SVD-3-CV-C</t>
+          <t>PIN-XAL-C</t>
         </is>
       </c>
       <c r="C64" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D64" s="12" t="inlineStr">
         <is>
-          <t>SVD,3 inch,Clevis,Corr</t>
+          <t>Pin,Crossarm Light,Corrosive</t>
         </is>
       </c>
       <c r="E64" s="12" t="inlineStr">
@@ -2282,32 +2278,32 @@
         </is>
       </c>
       <c r="F64" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G64" s="13" t="inlineStr"/>
       <c r="H64" s="14" t="n">
-        <v>0</v>
+        <v>62.16</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="9" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 18</t>
         </is>
       </c>
       <c r="B65" s="9" t="inlineStr">
         <is>
-          <t>SVD-SG2</t>
+          <t>POL-40-5</t>
         </is>
       </c>
       <c r="C65" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D65" s="9" t="inlineStr">
         <is>
-          <t>SVD,Service Grip,#2</t>
+          <t>Pole,40ft,Class 5</t>
         </is>
       </c>
       <c r="E65" s="9" t="inlineStr">
@@ -2320,28 +2316,28 @@
       </c>
       <c r="G65" s="10" t="inlineStr"/>
       <c r="H65" s="11" t="n">
-        <v>0</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="12" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 18</t>
         </is>
       </c>
       <c r="B66" s="12" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C66" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D66" s="12" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E66" s="12" t="inlineStr">
@@ -2350,32 +2346,32 @@
         </is>
       </c>
       <c r="F66" s="13" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G66" s="13" t="inlineStr"/>
       <c r="H66" s="14" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="9" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 18</t>
         </is>
       </c>
       <c r="B67" s="9" t="inlineStr">
         <is>
-          <t>XCO-27-100-8-C</t>
+          <t>SAA-DE-20-C</t>
         </is>
       </c>
       <c r="C67" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D67" s="9" t="inlineStr">
         <is>
-          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
+          <t>SAA,DE Clamp #4-2/0, Corr.</t>
         </is>
       </c>
       <c r="E67" s="9" t="inlineStr">
@@ -2384,32 +2380,32 @@
         </is>
       </c>
       <c r="F67" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G67" s="10" t="inlineStr"/>
       <c r="H67" s="11" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="12" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 18</t>
         </is>
       </c>
       <c r="B68" s="12" t="inlineStr">
         <is>
-          <t>XFR-10-72-120-1B-S</t>
+          <t>SVD-3-CV-C</t>
         </is>
       </c>
       <c r="C68" s="12" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D68" s="12" t="inlineStr">
         <is>
-          <t>XFR,10KVA,7.2/12.4kVY,120/240,1BG,SS</t>
+          <t>SVD,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E68" s="12" t="inlineStr">
@@ -2422,7 +2418,7 @@
       </c>
       <c r="G68" s="13" t="inlineStr"/>
       <c r="H68" s="14" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="69">
@@ -2433,7 +2429,7 @@
       </c>
       <c r="B69" s="9" t="inlineStr">
         <is>
-          <t>ARM-8S-60S-C</t>
+          <t>SVD-SG2</t>
         </is>
       </c>
       <c r="C69" s="9" t="inlineStr">
@@ -2443,7 +2439,7 @@
       </c>
       <c r="D69" s="9" t="inlineStr">
         <is>
-          <t>ARM,8ft Single Wood,60in Sgl.Wd,Corr</t>
+          <t>SVD,Service Grip,#2</t>
         </is>
       </c>
       <c r="E69" s="9" t="inlineStr">
@@ -2456,7 +2452,7 @@
       </c>
       <c r="G69" s="10" t="inlineStr"/>
       <c r="H69" s="11" t="n">
-        <v>0</v>
+        <v>95.15000000000001</v>
       </c>
     </row>
     <row r="70">
@@ -2467,7 +2463,7 @@
       </c>
       <c r="B70" s="12" t="inlineStr">
         <is>
-          <t>BKT-AC18-F-C</t>
+          <t>XCO-27-100-8-C</t>
         </is>
       </c>
       <c r="C70" s="12" t="inlineStr">
@@ -2477,7 +2473,7 @@
       </c>
       <c r="D70" s="12" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
+          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
         </is>
       </c>
       <c r="E70" s="12" t="inlineStr">
@@ -2490,28 +2486,28 @@
       </c>
       <c r="G70" s="13" t="inlineStr"/>
       <c r="H70" s="14" t="n">
-        <v>0</v>
+        <v>53.04</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="9" t="inlineStr">
         <is>
-          <t>Point 18</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B71" s="9" t="inlineStr">
         <is>
-          <t>EQL-3-4-C-2-S-X</t>
+          <t>ARM-8SF-GN-TL-C</t>
         </is>
       </c>
       <c r="C71" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D71" s="9" t="inlineStr">
         <is>
-          <t>EQL,3 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
         </is>
       </c>
       <c r="E71" s="9" t="inlineStr">
@@ -2524,198 +2520,87 @@
       </c>
       <c r="G71" s="10" t="inlineStr"/>
       <c r="H71" s="11" t="n">
-        <v>0</v>
+        <v>350.53</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="12" t="inlineStr">
-        <is>
-          <t>Point 18</t>
-        </is>
-      </c>
-      <c r="B72" s="12" t="inlineStr">
-        <is>
-          <t>GND-CR-4</t>
-        </is>
-      </c>
-      <c r="C72" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D72" s="12" t="inlineStr">
-        <is>
-          <t>GND,Cu Clad Rod,#4</t>
-        </is>
-      </c>
-      <c r="E72" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F72" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G72" s="13" t="inlineStr"/>
-      <c r="H72" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="9" t="inlineStr">
-        <is>
-          <t>Point 18</t>
-        </is>
-      </c>
-      <c r="B73" s="9" t="inlineStr">
-        <is>
-          <t>GND-MD</t>
-        </is>
-      </c>
-      <c r="C73" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D73" s="9" t="inlineStr">
-        <is>
-          <t>GND,Wire Mldg Only</t>
-        </is>
-      </c>
-      <c r="E73" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F73" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G73" s="10" t="inlineStr"/>
-      <c r="H73" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="12" t="inlineStr">
-        <is>
-          <t>Point 18</t>
-        </is>
-      </c>
-      <c r="B74" s="12" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C74" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D74" s="12" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E74" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F74" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G74" s="13" t="inlineStr"/>
-      <c r="H74" s="14" t="n">
-        <v>0</v>
+      <c r="A72" s="15" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H72" s="16" t="n">
+        <v>5434.899999999999</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="9" t="inlineStr">
-        <is>
-          <t>Point 18</t>
-        </is>
-      </c>
-      <c r="B75" s="9" t="inlineStr">
-        <is>
-          <t>PIN-XAL-C</t>
-        </is>
-      </c>
-      <c r="C75" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D75" s="9" t="inlineStr">
-        <is>
-          <t>Pin,Crossarm Light,Corrosive</t>
-        </is>
-      </c>
-      <c r="E75" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F75" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G75" s="10" t="inlineStr"/>
-      <c r="H75" s="11" t="n">
-        <v>0</v>
+      <c r="A75" s="7" t="inlineStr">
+        <is>
+          <t>Wednesday (07/30/2025)</t>
+        </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="12" t="inlineStr">
-        <is>
-          <t>Point 18</t>
-        </is>
-      </c>
-      <c r="B76" s="12" t="inlineStr">
-        <is>
-          <t>POL-40-5</t>
-        </is>
-      </c>
-      <c r="C76" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D76" s="12" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 5</t>
-        </is>
-      </c>
-      <c r="E76" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F76" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G76" s="13" t="inlineStr"/>
-      <c r="H76" s="14" t="n">
-        <v>0</v>
+      <c r="A76" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B76" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C76" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D76" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E76" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F76" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G76" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H76" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="9" t="inlineStr">
         <is>
-          <t>Point 18</t>
+          <t>Point 25</t>
         </is>
       </c>
       <c r="B77" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C77" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D77" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E77" s="9" t="inlineStr">
@@ -2728,28 +2613,28 @@
       </c>
       <c r="G77" s="10" t="inlineStr"/>
       <c r="H77" s="11" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="12" t="inlineStr">
         <is>
-          <t>Point 18</t>
+          <t>Point 25</t>
         </is>
       </c>
       <c r="B78" s="12" t="inlineStr">
         <is>
-          <t>SAA-DE-20-C</t>
+          <t>SVC-10-TP-AAA-RS</t>
         </is>
       </c>
       <c r="C78" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D78" s="12" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0, Corr.</t>
+          <t>SVC,1/0,Trip,All Alum,Res</t>
         </is>
       </c>
       <c r="E78" s="12" t="inlineStr">
@@ -2762,28 +2647,28 @@
       </c>
       <c r="G78" s="13" t="inlineStr"/>
       <c r="H78" s="14" t="n">
-        <v>0</v>
+        <v>256.12</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="9" t="inlineStr">
         <is>
-          <t>Point 18</t>
+          <t>Point 25</t>
         </is>
       </c>
       <c r="B79" s="9" t="inlineStr">
         <is>
-          <t>SVC-VA</t>
+          <t>DEG-10-SNA</t>
         </is>
       </c>
       <c r="C79" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D79" s="9" t="inlineStr">
         <is>
-          <t>SVC-Virtual Asset Capitalization</t>
+          <t>DEG,1/0,Secondary Neutral Al</t>
         </is>
       </c>
       <c r="E79" s="9" t="inlineStr">
@@ -2792,22 +2677,22 @@
         </is>
       </c>
       <c r="F79" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G79" s="10" t="inlineStr"/>
       <c r="H79" s="11" t="n">
-        <v>0</v>
+        <v>572.5</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="12" t="inlineStr">
         <is>
-          <t>Point 18</t>
+          <t>Point 25</t>
         </is>
       </c>
       <c r="B80" s="12" t="inlineStr">
         <is>
-          <t>SVD-3-CV-C</t>
+          <t>DEG-10-SNA</t>
         </is>
       </c>
       <c r="C80" s="12" t="inlineStr">
@@ -2817,7 +2702,7 @@
       </c>
       <c r="D80" s="12" t="inlineStr">
         <is>
-          <t>SVD,3 inch,Clevis,Corr</t>
+          <t>DEG,1/0,Secondary Neutral Al</t>
         </is>
       </c>
       <c r="E80" s="12" t="inlineStr">
@@ -2826,22 +2711,22 @@
         </is>
       </c>
       <c r="F80" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G80" s="13" t="inlineStr"/>
       <c r="H80" s="14" t="n">
-        <v>0</v>
+        <v>190.3</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="9" t="inlineStr">
         <is>
-          <t>Point 18</t>
+          <t>Point 25</t>
         </is>
       </c>
       <c r="B81" s="9" t="inlineStr">
         <is>
-          <t>SVD-SG2</t>
+          <t>SVC-10-TP-AAL-RS</t>
         </is>
       </c>
       <c r="C81" s="9" t="inlineStr">
@@ -2851,7 +2736,7 @@
       </c>
       <c r="D81" s="9" t="inlineStr">
         <is>
-          <t>SVD,Service Grip,#2</t>
+          <t>SVC,1/0,Trip,All Alum,Res</t>
         </is>
       </c>
       <c r="E81" s="9" t="inlineStr">
@@ -2864,28 +2749,28 @@
       </c>
       <c r="G81" s="10" t="inlineStr"/>
       <c r="H81" s="11" t="n">
-        <v>0</v>
+        <v>48.07</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="12" t="inlineStr">
         <is>
-          <t>Point 18</t>
+          <t>Point 25</t>
         </is>
       </c>
       <c r="B82" s="12" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>CNC-HTA-10</t>
         </is>
       </c>
       <c r="C82" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D82" s="12" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>Compression connector H-Tap Assembly 1/0</t>
         </is>
       </c>
       <c r="E82" s="12" t="inlineStr">
@@ -2894,144 +2779,144 @@
         </is>
       </c>
       <c r="F82" s="13" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="G82" s="13" t="inlineStr"/>
       <c r="H82" s="14" t="n">
-        <v>0</v>
+        <v>66.98999999999999</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="9" t="inlineStr">
-        <is>
-          <t>Point 18</t>
-        </is>
-      </c>
-      <c r="B83" s="9" t="inlineStr">
-        <is>
-          <t>XCO-27-100-8-C</t>
-        </is>
-      </c>
-      <c r="C83" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D83" s="9" t="inlineStr">
-        <is>
-          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
-        </is>
-      </c>
-      <c r="E83" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F83" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G83" s="10" t="inlineStr"/>
-      <c r="H83" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="12" t="inlineStr">
-        <is>
-          <t>Point 19</t>
-        </is>
-      </c>
-      <c r="B84" s="12" t="inlineStr">
-        <is>
-          <t>ARM-8SF-GN-TL-C</t>
-        </is>
-      </c>
-      <c r="C84" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D84" s="12" t="inlineStr">
-        <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
-        </is>
-      </c>
-      <c r="E84" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F84" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G84" s="13" t="inlineStr"/>
-      <c r="H84" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="15" t="inlineStr">
+      <c r="A83" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H85" s="16" t="n">
-        <v>0</v>
+      <c r="H83" s="16" t="n">
+        <v>1782.51</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="7" t="inlineStr">
+        <is>
+          <t>Thursday (07/31/2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B87" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C87" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D87" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E87" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F87" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G87" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H87" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="7" t="inlineStr">
-        <is>
-          <t>Wednesday (07/30/2025)</t>
-        </is>
+      <c r="A88" s="9" t="inlineStr">
+        <is>
+          <t>Point 26</t>
+        </is>
+      </c>
+      <c r="B88" s="9" t="inlineStr">
+        <is>
+          <t>PLA-CUT</t>
+        </is>
+      </c>
+      <c r="C88" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D88" s="9" t="inlineStr">
+        <is>
+          <t>PLA,Cut Off Pole Top</t>
+        </is>
+      </c>
+      <c r="E88" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F88" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G88" s="10" t="inlineStr"/>
+      <c r="H88" s="11" t="n">
+        <v>216.17</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="8" t="inlineStr">
-        <is>
-          <t>Point Number</t>
-        </is>
-      </c>
-      <c r="B89" s="8" t="inlineStr">
-        <is>
-          <t>Billable Unit Code</t>
-        </is>
-      </c>
-      <c r="C89" s="8" t="inlineStr">
-        <is>
-          <t>Work Type</t>
-        </is>
-      </c>
-      <c r="D89" s="8" t="inlineStr">
-        <is>
-          <t>Unit Description</t>
-        </is>
-      </c>
-      <c r="E89" s="8" t="inlineStr">
-        <is>
-          <t>Unit of Measure</t>
-        </is>
-      </c>
-      <c r="F89" s="8" t="inlineStr">
-        <is>
-          <t># Units</t>
-        </is>
-      </c>
-      <c r="G89" s="8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H89" s="8" t="inlineStr">
-        <is>
-          <t>Pricing</t>
-        </is>
+      <c r="A89" s="12" t="inlineStr">
+        <is>
+          <t>Point 29</t>
+        </is>
+      </c>
+      <c r="B89" s="12" t="inlineStr">
+        <is>
+          <t>PLA-CUT</t>
+        </is>
+      </c>
+      <c r="C89" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D89" s="12" t="inlineStr">
+        <is>
+          <t>PLA,Cut Off Pole Top</t>
+        </is>
+      </c>
+      <c r="E89" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F89" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G89" s="13" t="inlineStr"/>
+      <c r="H89" s="14" t="n">
+        <v>216.17</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="9" t="inlineStr">
         <is>
-          <t>Point 25</t>
+          <t>Point 29</t>
         </is>
       </c>
       <c r="B90" s="9" t="inlineStr">
@@ -3059,28 +2944,28 @@
       </c>
       <c r="G90" s="10" t="inlineStr"/>
       <c r="H90" s="11" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="12" t="inlineStr">
         <is>
-          <t>Point 25</t>
+          <t>Point 30</t>
         </is>
       </c>
       <c r="B91" s="12" t="inlineStr">
         <is>
-          <t>SVC-10-TP-AAA-RS</t>
+          <t>PLA-CUT</t>
         </is>
       </c>
       <c r="C91" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D91" s="12" t="inlineStr">
         <is>
-          <t>SVC,1/0,Trip,All Alum,Res</t>
+          <t>PLA,Cut Off Pole Top</t>
         </is>
       </c>
       <c r="E91" s="12" t="inlineStr">
@@ -3093,52 +2978,52 @@
       </c>
       <c r="G91" s="13" t="inlineStr"/>
       <c r="H91" s="14" t="n">
-        <v>0</v>
+        <v>216.17</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="9" t="inlineStr">
         <is>
-          <t>Point 25</t>
+          <t>Point 02</t>
         </is>
       </c>
       <c r="B92" s="9" t="inlineStr">
         <is>
-          <t>DEG-10-SNA</t>
+          <t>CON-2-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C92" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D92" s="9" t="inlineStr">
         <is>
-          <t>DEG,1/0,Secondary Neutral Al</t>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
         </is>
       </c>
       <c r="E92" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F92" s="10" t="n">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="G92" s="10" t="inlineStr"/>
       <c r="H92" s="11" t="n">
-        <v>0</v>
+        <v>72.54000000000001</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="12" t="inlineStr">
         <is>
-          <t>Point 25</t>
+          <t>Point 04</t>
         </is>
       </c>
       <c r="B93" s="12" t="inlineStr">
         <is>
-          <t>DEG-10-SNA</t>
+          <t>CON-2-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C93" s="12" t="inlineStr">
@@ -3148,31 +3033,31 @@
       </c>
       <c r="D93" s="12" t="inlineStr">
         <is>
-          <t>DEG,1/0,Secondary Neutral Al</t>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
         </is>
       </c>
       <c r="E93" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F93" s="13" t="n">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="G93" s="13" t="inlineStr"/>
       <c r="H93" s="14" t="n">
-        <v>0</v>
+        <v>91.14</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="9" t="inlineStr">
         <is>
-          <t>Point 25</t>
+          <t>Point 06</t>
         </is>
       </c>
       <c r="B94" s="9" t="inlineStr">
         <is>
-          <t>SVC-10-TP-AAL-RS</t>
+          <t>CON-2-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C94" s="9" t="inlineStr">
@@ -3182,1300 +3067,833 @@
       </c>
       <c r="D94" s="9" t="inlineStr">
         <is>
-          <t>SVC,1/0,Trip,All Alum,Res</t>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
         </is>
       </c>
       <c r="E94" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F94" s="10" t="n">
-        <v>1</v>
+        <v>172</v>
       </c>
       <c r="G94" s="10" t="inlineStr"/>
       <c r="H94" s="11" t="n">
-        <v>0</v>
+        <v>159.96</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="12" t="inlineStr">
         <is>
-          <t>Point 25</t>
+          <t>Point 08</t>
         </is>
       </c>
       <c r="B95" s="12" t="inlineStr">
         <is>
-          <t>CNC-HTA-10</t>
+          <t>CON-2-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C95" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D95" s="12" t="inlineStr">
         <is>
-          <t>Compression connector H-Tap Assembly 1/0</t>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
         </is>
       </c>
       <c r="E95" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F95" s="13" t="n">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="G95" s="13" t="inlineStr"/>
       <c r="H95" s="14" t="n">
-        <v>0</v>
+        <v>95.79000000000001</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="15" t="inlineStr">
+      <c r="A96" s="9" t="inlineStr">
+        <is>
+          <t>Point 10</t>
+        </is>
+      </c>
+      <c r="B96" s="9" t="inlineStr">
+        <is>
+          <t>CON-2-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C96" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D96" s="9" t="inlineStr">
+        <is>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+        </is>
+      </c>
+      <c r="E96" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F96" s="10" t="n">
+        <v>119</v>
+      </c>
+      <c r="G96" s="10" t="inlineStr"/>
+      <c r="H96" s="11" t="n">
+        <v>110.67</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="12" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B97" s="12" t="inlineStr">
+        <is>
+          <t>CON-4-AAA-1-B</t>
+        </is>
+      </c>
+      <c r="C97" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D97" s="12" t="inlineStr">
+        <is>
+          <t>CON,#4 AWG,Alum Alloy,One,Bare</t>
+        </is>
+      </c>
+      <c r="E97" s="12" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F97" s="13" t="n">
+        <v>276</v>
+      </c>
+      <c r="G97" s="13" t="inlineStr"/>
+      <c r="H97" s="14" t="n">
+        <v>256.68</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="9" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B98" s="9" t="inlineStr">
+        <is>
+          <t>CON-4-CHD-1-B</t>
+        </is>
+      </c>
+      <c r="C98" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D98" s="9" t="inlineStr">
+        <is>
+          <t>CON,#4,CU Hard Dr,One,Bare(Rem+Spl only)</t>
+        </is>
+      </c>
+      <c r="E98" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F98" s="10" t="n">
+        <v>495</v>
+      </c>
+      <c r="G98" s="10" t="inlineStr"/>
+      <c r="H98" s="11" t="n">
+        <v>460.35</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="12" t="inlineStr">
+        <is>
+          <t>Point 18</t>
+        </is>
+      </c>
+      <c r="B99" s="12" t="inlineStr">
+        <is>
+          <t>CON-4-AAA-1-B</t>
+        </is>
+      </c>
+      <c r="C99" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D99" s="12" t="inlineStr">
+        <is>
+          <t>CON,#4 AWG,Alum Alloy,One,Bare</t>
+        </is>
+      </c>
+      <c r="E99" s="12" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F99" s="13" t="n">
+        <v>114</v>
+      </c>
+      <c r="G99" s="13" t="inlineStr"/>
+      <c r="H99" s="14" t="n">
+        <v>106.02</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="9" t="inlineStr">
+        <is>
+          <t>Point 20</t>
+        </is>
+      </c>
+      <c r="B100" s="9" t="inlineStr">
+        <is>
+          <t>CON-4-AAA-1-B</t>
+        </is>
+      </c>
+      <c r="C100" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D100" s="9" t="inlineStr">
+        <is>
+          <t>CON,#4 AWG,Alum Alloy,One,Bare</t>
+        </is>
+      </c>
+      <c r="E100" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F100" s="10" t="n">
+        <v>246</v>
+      </c>
+      <c r="G100" s="10" t="inlineStr"/>
+      <c r="H100" s="11" t="n">
+        <v>228.78</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="12" t="inlineStr">
+        <is>
+          <t>Point 25</t>
+        </is>
+      </c>
+      <c r="B101" s="12" t="inlineStr">
+        <is>
+          <t>ARM-8SF-GN-TL-C</t>
+        </is>
+      </c>
+      <c r="C101" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D101" s="12" t="inlineStr">
+        <is>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
+        </is>
+      </c>
+      <c r="E101" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F101" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G101" s="13" t="inlineStr"/>
+      <c r="H101" s="14" t="n">
+        <v>350.53</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="9" t="inlineStr">
+        <is>
+          <t>Point 25</t>
+        </is>
+      </c>
+      <c r="B102" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C102" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D102" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E102" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F102" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G102" s="10" t="inlineStr"/>
+      <c r="H102" s="11" t="n">
+        <v>282.51</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="12" t="inlineStr">
+        <is>
+          <t>Point 25</t>
+        </is>
+      </c>
+      <c r="B103" s="12" t="inlineStr">
+        <is>
+          <t>PIN-XAL-C</t>
+        </is>
+      </c>
+      <c r="C103" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D103" s="12" t="inlineStr">
+        <is>
+          <t>Pin,Crossarm Light,Corrosive</t>
+        </is>
+      </c>
+      <c r="E103" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F103" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G103" s="13" t="inlineStr"/>
+      <c r="H103" s="14" t="n">
+        <v>282.51</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="9" t="inlineStr">
+        <is>
+          <t>Point 25</t>
+        </is>
+      </c>
+      <c r="B104" s="9" t="inlineStr">
+        <is>
+          <t>POL-40-1</t>
+        </is>
+      </c>
+      <c r="C104" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D104" s="9" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 1</t>
+        </is>
+      </c>
+      <c r="E104" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F104" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G104" s="10" t="inlineStr"/>
+      <c r="H104" s="11" t="n">
+        <v>478.55</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="12" t="inlineStr">
+        <is>
+          <t>Point 26</t>
+        </is>
+      </c>
+      <c r="B105" s="12" t="inlineStr">
+        <is>
+          <t>ARM-8S-60S-C</t>
+        </is>
+      </c>
+      <c r="C105" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D105" s="12" t="inlineStr">
+        <is>
+          <t>ARM,8ft Single Wood,60in Sgl.Wd,Corr</t>
+        </is>
+      </c>
+      <c r="E105" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F105" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G105" s="13" t="inlineStr"/>
+      <c r="H105" s="14" t="n">
+        <v>61.83</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="9" t="inlineStr">
+        <is>
+          <t>Point 26</t>
+        </is>
+      </c>
+      <c r="B106" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C106" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D106" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E106" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F106" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G106" s="10" t="inlineStr"/>
+      <c r="H106" s="11" t="n">
+        <v>93.23999999999999</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="12" t="inlineStr">
+        <is>
+          <t>Point 26</t>
+        </is>
+      </c>
+      <c r="B107" s="12" t="inlineStr">
+        <is>
+          <t>PIN-XAL-C</t>
+        </is>
+      </c>
+      <c r="C107" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D107" s="12" t="inlineStr">
+        <is>
+          <t>Pin,Crossarm Light,Corrosive</t>
+        </is>
+      </c>
+      <c r="E107" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F107" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G107" s="13" t="inlineStr"/>
+      <c r="H107" s="14" t="n">
+        <v>93.23999999999999</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="9" t="inlineStr">
+        <is>
+          <t>Point 26</t>
+        </is>
+      </c>
+      <c r="B108" s="9" t="inlineStr">
+        <is>
+          <t>XCO-27-100-8-C</t>
+        </is>
+      </c>
+      <c r="C108" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D108" s="9" t="inlineStr">
+        <is>
+          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
+        </is>
+      </c>
+      <c r="E108" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F108" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G108" s="10" t="inlineStr"/>
+      <c r="H108" s="11" t="n">
+        <v>26.52</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="12" t="inlineStr">
+        <is>
+          <t>Point 27</t>
+        </is>
+      </c>
+      <c r="B109" s="12" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C109" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D109" s="12" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E109" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F109" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G109" s="13" t="inlineStr"/>
+      <c r="H109" s="14" t="n">
+        <v>282.51</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="9" t="inlineStr">
+        <is>
+          <t>Point 27</t>
+        </is>
+      </c>
+      <c r="B110" s="9" t="inlineStr">
+        <is>
+          <t>PIN-XAL-C</t>
+        </is>
+      </c>
+      <c r="C110" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D110" s="9" t="inlineStr">
+        <is>
+          <t>Pin,Crossarm Light,Corrosive</t>
+        </is>
+      </c>
+      <c r="E110" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F110" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G110" s="10" t="inlineStr"/>
+      <c r="H110" s="11" t="n">
+        <v>282.51</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="12" t="inlineStr">
+        <is>
+          <t>Point 27</t>
+        </is>
+      </c>
+      <c r="B111" s="12" t="inlineStr">
+        <is>
+          <t>POL-40-2</t>
+        </is>
+      </c>
+      <c r="C111" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D111" s="12" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E111" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F111" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G111" s="13" t="inlineStr"/>
+      <c r="H111" s="14" t="n">
+        <v>478.55</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="9" t="inlineStr">
+        <is>
+          <t>Point 28</t>
+        </is>
+      </c>
+      <c r="B112" s="9" t="inlineStr">
+        <is>
+          <t>POL-40-4</t>
+        </is>
+      </c>
+      <c r="C112" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D112" s="9" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 4</t>
+        </is>
+      </c>
+      <c r="E112" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F112" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G112" s="10" t="inlineStr"/>
+      <c r="H112" s="11" t="n">
+        <v>198.88</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="12" t="inlineStr">
+        <is>
+          <t>Point 29</t>
+        </is>
+      </c>
+      <c r="B113" s="12" t="inlineStr">
+        <is>
+          <t>ARM-8SF-GN-TL-C</t>
+        </is>
+      </c>
+      <c r="C113" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D113" s="12" t="inlineStr">
+        <is>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
+        </is>
+      </c>
+      <c r="E113" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F113" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G113" s="13" t="inlineStr"/>
+      <c r="H113" s="14" t="n">
+        <v>350.53</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="9" t="inlineStr">
+        <is>
+          <t>Point 29</t>
+        </is>
+      </c>
+      <c r="B114" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C114" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D114" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E114" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F114" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G114" s="10" t="inlineStr"/>
+      <c r="H114" s="11" t="n">
+        <v>282.51</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="12" t="inlineStr">
+        <is>
+          <t>Point 29</t>
+        </is>
+      </c>
+      <c r="B115" s="12" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-C</t>
+        </is>
+      </c>
+      <c r="C115" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D115" s="12" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Corrosive</t>
+        </is>
+      </c>
+      <c r="E115" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F115" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G115" s="13" t="inlineStr"/>
+      <c r="H115" s="14" t="n">
+        <v>94.17</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="9" t="inlineStr">
+        <is>
+          <t>Point 29</t>
+        </is>
+      </c>
+      <c r="B116" s="9" t="inlineStr">
+        <is>
+          <t>PIN-XAL-C</t>
+        </is>
+      </c>
+      <c r="C116" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D116" s="9" t="inlineStr">
+        <is>
+          <t>Pin,Crossarm Light,Corrosive</t>
+        </is>
+      </c>
+      <c r="E116" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F116" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G116" s="10" t="inlineStr"/>
+      <c r="H116" s="11" t="n">
+        <v>188.34</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="12" t="inlineStr">
+        <is>
+          <t>Point 29</t>
+        </is>
+      </c>
+      <c r="B117" s="12" t="inlineStr">
+        <is>
+          <t>POL-40-1</t>
+        </is>
+      </c>
+      <c r="C117" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D117" s="12" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 1</t>
+        </is>
+      </c>
+      <c r="E117" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F117" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G117" s="13" t="inlineStr"/>
+      <c r="H117" s="14" t="n">
+        <v>478.55</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H96" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="7" t="inlineStr">
-        <is>
-          <t>Thursday (07/31/2025)</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="8" t="inlineStr">
-        <is>
-          <t>Point Number</t>
-        </is>
-      </c>
-      <c r="B100" s="8" t="inlineStr">
-        <is>
-          <t>Billable Unit Code</t>
-        </is>
-      </c>
-      <c r="C100" s="8" t="inlineStr">
-        <is>
-          <t>Work Type</t>
-        </is>
-      </c>
-      <c r="D100" s="8" t="inlineStr">
-        <is>
-          <t>Unit Description</t>
-        </is>
-      </c>
-      <c r="E100" s="8" t="inlineStr">
-        <is>
-          <t>Unit of Measure</t>
-        </is>
-      </c>
-      <c r="F100" s="8" t="inlineStr">
-        <is>
-          <t># Units</t>
-        </is>
-      </c>
-      <c r="G100" s="8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H100" s="8" t="inlineStr">
-        <is>
-          <t>Pricing</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="9" t="inlineStr">
-        <is>
-          <t>Point 26</t>
-        </is>
-      </c>
-      <c r="B101" s="9" t="inlineStr">
-        <is>
-          <t>PLA-CUT</t>
-        </is>
-      </c>
-      <c r="C101" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D101" s="9" t="inlineStr">
-        <is>
-          <t>PLA,Cut Off Pole Top</t>
-        </is>
-      </c>
-      <c r="E101" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F101" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G101" s="10" t="inlineStr"/>
-      <c r="H101" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="12" t="inlineStr">
-        <is>
-          <t>Point 29</t>
-        </is>
-      </c>
-      <c r="B102" s="12" t="inlineStr">
-        <is>
-          <t>PLA-CUT</t>
-        </is>
-      </c>
-      <c r="C102" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D102" s="12" t="inlineStr">
-        <is>
-          <t>PLA,Cut Off Pole Top</t>
-        </is>
-      </c>
-      <c r="E102" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F102" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G102" s="13" t="inlineStr"/>
-      <c r="H102" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="9" t="inlineStr">
-        <is>
-          <t>Point 29</t>
-        </is>
-      </c>
-      <c r="B103" s="9" t="inlineStr">
-        <is>
-          <t>PLA-HDIG</t>
-        </is>
-      </c>
-      <c r="C103" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D103" s="9" t="inlineStr">
-        <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
-        </is>
-      </c>
-      <c r="E103" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F103" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G103" s="10" t="inlineStr"/>
-      <c r="H103" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="12" t="inlineStr">
-        <is>
-          <t>Point 30</t>
-        </is>
-      </c>
-      <c r="B104" s="12" t="inlineStr">
-        <is>
-          <t>PLA-CUT</t>
-        </is>
-      </c>
-      <c r="C104" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D104" s="12" t="inlineStr">
-        <is>
-          <t>PLA,Cut Off Pole Top</t>
-        </is>
-      </c>
-      <c r="E104" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F104" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G104" s="13" t="inlineStr"/>
-      <c r="H104" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="9" t="inlineStr">
-        <is>
-          <t>Point 02</t>
-        </is>
-      </c>
-      <c r="B105" s="9" t="inlineStr">
-        <is>
-          <t>CON-2-AAA-1-B-REEL</t>
-        </is>
-      </c>
-      <c r="C105" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D105" s="9" t="inlineStr">
-        <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
-        </is>
-      </c>
-      <c r="E105" s="9" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F105" s="10" t="n">
-        <v>78</v>
-      </c>
-      <c r="G105" s="10" t="inlineStr"/>
-      <c r="H105" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="12" t="inlineStr">
-        <is>
-          <t>Point 04</t>
-        </is>
-      </c>
-      <c r="B106" s="12" t="inlineStr">
-        <is>
-          <t>CON-2-AAA-1-B-REEL</t>
-        </is>
-      </c>
-      <c r="C106" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D106" s="12" t="inlineStr">
-        <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
-        </is>
-      </c>
-      <c r="E106" s="12" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F106" s="13" t="n">
-        <v>98</v>
-      </c>
-      <c r="G106" s="13" t="inlineStr"/>
-      <c r="H106" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="9" t="inlineStr">
-        <is>
-          <t>Point 06</t>
-        </is>
-      </c>
-      <c r="B107" s="9" t="inlineStr">
-        <is>
-          <t>CON-2-AAA-1-B-REEL</t>
-        </is>
-      </c>
-      <c r="C107" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D107" s="9" t="inlineStr">
-        <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
-        </is>
-      </c>
-      <c r="E107" s="9" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F107" s="10" t="n">
-        <v>172</v>
-      </c>
-      <c r="G107" s="10" t="inlineStr"/>
-      <c r="H107" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="12" t="inlineStr">
-        <is>
-          <t>Point 08</t>
-        </is>
-      </c>
-      <c r="B108" s="12" t="inlineStr">
-        <is>
-          <t>CON-2-AAA-1-B-REEL</t>
-        </is>
-      </c>
-      <c r="C108" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D108" s="12" t="inlineStr">
-        <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
-        </is>
-      </c>
-      <c r="E108" s="12" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F108" s="13" t="n">
-        <v>103</v>
-      </c>
-      <c r="G108" s="13" t="inlineStr"/>
-      <c r="H108" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="9" t="inlineStr">
-        <is>
-          <t>Point 10</t>
-        </is>
-      </c>
-      <c r="B109" s="9" t="inlineStr">
-        <is>
-          <t>CON-2-AAA-1-B-REEL</t>
-        </is>
-      </c>
-      <c r="C109" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D109" s="9" t="inlineStr">
-        <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
-        </is>
-      </c>
-      <c r="E109" s="9" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F109" s="10" t="n">
-        <v>119</v>
-      </c>
-      <c r="G109" s="10" t="inlineStr"/>
-      <c r="H109" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="12" t="inlineStr">
-        <is>
-          <t>Point 16</t>
-        </is>
-      </c>
-      <c r="B110" s="12" t="inlineStr">
-        <is>
-          <t>CON-4-AAA-1-B</t>
-        </is>
-      </c>
-      <c r="C110" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D110" s="12" t="inlineStr">
-        <is>
-          <t>CON,#4 AWG,Alum Alloy,One,Bare</t>
-        </is>
-      </c>
-      <c r="E110" s="12" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F110" s="13" t="n">
-        <v>276</v>
-      </c>
-      <c r="G110" s="13" t="inlineStr"/>
-      <c r="H110" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="9" t="inlineStr">
-        <is>
-          <t>Point 16</t>
-        </is>
-      </c>
-      <c r="B111" s="9" t="inlineStr">
-        <is>
-          <t>CON-4-CHD-1-B</t>
-        </is>
-      </c>
-      <c r="C111" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D111" s="9" t="inlineStr">
-        <is>
-          <t>CON,#4,CU Hard Dr,One,Bare(Rem+Spl only)</t>
-        </is>
-      </c>
-      <c r="E111" s="9" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F111" s="10" t="n">
-        <v>495</v>
-      </c>
-      <c r="G111" s="10" t="inlineStr"/>
-      <c r="H111" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="12" t="inlineStr">
-        <is>
-          <t>Point 18</t>
-        </is>
-      </c>
-      <c r="B112" s="12" t="inlineStr">
-        <is>
-          <t>CON-4-AAA-1-B</t>
-        </is>
-      </c>
-      <c r="C112" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D112" s="12" t="inlineStr">
-        <is>
-          <t>CON,#4 AWG,Alum Alloy,One,Bare</t>
-        </is>
-      </c>
-      <c r="E112" s="12" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F112" s="13" t="n">
-        <v>114</v>
-      </c>
-      <c r="G112" s="13" t="inlineStr"/>
-      <c r="H112" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="9" t="inlineStr">
-        <is>
-          <t>Point 20</t>
-        </is>
-      </c>
-      <c r="B113" s="9" t="inlineStr">
-        <is>
-          <t>CON-4-AAA-1-B</t>
-        </is>
-      </c>
-      <c r="C113" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D113" s="9" t="inlineStr">
-        <is>
-          <t>CON,#4 AWG,Alum Alloy,One,Bare</t>
-        </is>
-      </c>
-      <c r="E113" s="9" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F113" s="10" t="n">
-        <v>246</v>
-      </c>
-      <c r="G113" s="10" t="inlineStr"/>
-      <c r="H113" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="12" t="inlineStr">
-        <is>
-          <t>Point 25</t>
-        </is>
-      </c>
-      <c r="B114" s="12" t="inlineStr">
-        <is>
-          <t>ARM-8SF-GN-TL-C</t>
-        </is>
-      </c>
-      <c r="C114" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D114" s="12" t="inlineStr">
-        <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
-        </is>
-      </c>
-      <c r="E114" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F114" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G114" s="13" t="inlineStr"/>
-      <c r="H114" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="9" t="inlineStr">
-        <is>
-          <t>Point 25</t>
-        </is>
-      </c>
-      <c r="B115" s="9" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C115" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D115" s="9" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E115" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F115" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G115" s="10" t="inlineStr"/>
-      <c r="H115" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="12" t="inlineStr">
-        <is>
-          <t>Point 25</t>
-        </is>
-      </c>
-      <c r="B116" s="12" t="inlineStr">
-        <is>
-          <t>PIN-XAL-C</t>
-        </is>
-      </c>
-      <c r="C116" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D116" s="12" t="inlineStr">
-        <is>
-          <t>Pin,Crossarm Light,Corrosive</t>
-        </is>
-      </c>
-      <c r="E116" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F116" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="G116" s="13" t="inlineStr"/>
-      <c r="H116" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="9" t="inlineStr">
-        <is>
-          <t>Point 25</t>
-        </is>
-      </c>
-      <c r="B117" s="9" t="inlineStr">
-        <is>
-          <t>PLD-EYE-C</t>
-        </is>
-      </c>
-      <c r="C117" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D117" s="9" t="inlineStr">
-        <is>
-          <t>PLD,Eyebolt Deadend,Corrosive</t>
-        </is>
-      </c>
-      <c r="E117" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F117" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="G117" s="10" t="inlineStr"/>
-      <c r="H117" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="12" t="inlineStr">
-        <is>
-          <t>Point 25</t>
-        </is>
-      </c>
-      <c r="B118" s="12" t="inlineStr">
-        <is>
-          <t>POL-40-1</t>
-        </is>
-      </c>
-      <c r="C118" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D118" s="12" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 1</t>
-        </is>
-      </c>
-      <c r="E118" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F118" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G118" s="13" t="inlineStr"/>
-      <c r="H118" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="9" t="inlineStr">
-        <is>
-          <t>Point 25</t>
-        </is>
-      </c>
-      <c r="B119" s="9" t="inlineStr">
-        <is>
-          <t>TIE-4-ALH-F</t>
-        </is>
-      </c>
-      <c r="C119" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D119" s="9" t="inlineStr">
-        <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
-        </is>
-      </c>
-      <c r="E119" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F119" s="10" t="n">
-        <v>24</v>
-      </c>
-      <c r="G119" s="10" t="inlineStr"/>
-      <c r="H119" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="12" t="inlineStr">
-        <is>
-          <t>Point 26</t>
-        </is>
-      </c>
-      <c r="B120" s="12" t="inlineStr">
-        <is>
-          <t>ARM-8S-60S-C</t>
-        </is>
-      </c>
-      <c r="C120" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D120" s="12" t="inlineStr">
-        <is>
-          <t>ARM,8ft Single Wood,60in Sgl.Wd,Corr</t>
-        </is>
-      </c>
-      <c r="E120" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F120" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G120" s="13" t="inlineStr"/>
-      <c r="H120" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="9" t="inlineStr">
-        <is>
-          <t>Point 26</t>
-        </is>
-      </c>
-      <c r="B121" s="9" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C121" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D121" s="9" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E121" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F121" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G121" s="10" t="inlineStr"/>
-      <c r="H121" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="12" t="inlineStr">
-        <is>
-          <t>Point 26</t>
-        </is>
-      </c>
-      <c r="B122" s="12" t="inlineStr">
-        <is>
-          <t>PIN-XAL-C</t>
-        </is>
-      </c>
-      <c r="C122" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D122" s="12" t="inlineStr">
-        <is>
-          <t>Pin,Crossarm Light,Corrosive</t>
-        </is>
-      </c>
-      <c r="E122" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F122" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="G122" s="13" t="inlineStr"/>
-      <c r="H122" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="9" t="inlineStr">
-        <is>
-          <t>Point 26</t>
-        </is>
-      </c>
-      <c r="B123" s="9" t="inlineStr">
-        <is>
-          <t>PLD-EYE-C</t>
-        </is>
-      </c>
-      <c r="C123" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D123" s="9" t="inlineStr">
-        <is>
-          <t>PLD,Eyebolt Deadend,Corrosive</t>
-        </is>
-      </c>
-      <c r="E123" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F123" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="G123" s="10" t="inlineStr"/>
-      <c r="H123" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="12" t="inlineStr">
-        <is>
-          <t>Point 26</t>
-        </is>
-      </c>
-      <c r="B124" s="12" t="inlineStr">
-        <is>
-          <t>TIE-4-ALH-F</t>
-        </is>
-      </c>
-      <c r="C124" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D124" s="12" t="inlineStr">
-        <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
-        </is>
-      </c>
-      <c r="E124" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F124" s="13" t="n">
-        <v>24</v>
-      </c>
-      <c r="G124" s="13" t="inlineStr"/>
-      <c r="H124" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="9" t="inlineStr">
-        <is>
-          <t>Point 26</t>
-        </is>
-      </c>
-      <c r="B125" s="9" t="inlineStr">
-        <is>
-          <t>XCO-27-100-8-C</t>
-        </is>
-      </c>
-      <c r="C125" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D125" s="9" t="inlineStr">
-        <is>
-          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
-        </is>
-      </c>
-      <c r="E125" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F125" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G125" s="10" t="inlineStr"/>
-      <c r="H125" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="12" t="inlineStr">
-        <is>
-          <t>Point 27</t>
-        </is>
-      </c>
-      <c r="B126" s="12" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C126" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D126" s="12" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E126" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F126" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="G126" s="13" t="inlineStr"/>
-      <c r="H126" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="9" t="inlineStr">
-        <is>
-          <t>Point 27</t>
-        </is>
-      </c>
-      <c r="B127" s="9" t="inlineStr">
-        <is>
-          <t>PIN-XAL-C</t>
-        </is>
-      </c>
-      <c r="C127" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D127" s="9" t="inlineStr">
-        <is>
-          <t>Pin,Crossarm Light,Corrosive</t>
-        </is>
-      </c>
-      <c r="E127" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F127" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G127" s="10" t="inlineStr"/>
-      <c r="H127" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="12" t="inlineStr">
-        <is>
-          <t>Point 27</t>
-        </is>
-      </c>
-      <c r="B128" s="12" t="inlineStr">
-        <is>
-          <t>POL-40-2</t>
-        </is>
-      </c>
-      <c r="C128" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D128" s="12" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 2</t>
-        </is>
-      </c>
-      <c r="E128" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F128" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G128" s="13" t="inlineStr"/>
-      <c r="H128" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="9" t="inlineStr">
-        <is>
-          <t>Point 28</t>
-        </is>
-      </c>
-      <c r="B129" s="9" t="inlineStr">
-        <is>
-          <t>POL-40-4</t>
-        </is>
-      </c>
-      <c r="C129" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D129" s="9" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 4</t>
-        </is>
-      </c>
-      <c r="E129" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F129" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G129" s="10" t="inlineStr"/>
-      <c r="H129" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="12" t="inlineStr">
-        <is>
-          <t>Point 29</t>
-        </is>
-      </c>
-      <c r="B130" s="12" t="inlineStr">
-        <is>
-          <t>ARM-8SF-GN-TL-C</t>
-        </is>
-      </c>
-      <c r="C130" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D130" s="12" t="inlineStr">
-        <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
-        </is>
-      </c>
-      <c r="E130" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F130" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G130" s="13" t="inlineStr"/>
-      <c r="H130" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="9" t="inlineStr">
-        <is>
-          <t>Point 29</t>
-        </is>
-      </c>
-      <c r="B131" s="9" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C131" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D131" s="9" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E131" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F131" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G131" s="10" t="inlineStr"/>
-      <c r="H131" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="12" t="inlineStr">
-        <is>
-          <t>Point 29</t>
-        </is>
-      </c>
-      <c r="B132" s="12" t="inlineStr">
-        <is>
-          <t>PIN-15-PTP-C</t>
-        </is>
-      </c>
-      <c r="C132" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D132" s="12" t="inlineStr">
-        <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
-        </is>
-      </c>
-      <c r="E132" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F132" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G132" s="13" t="inlineStr"/>
-      <c r="H132" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="9" t="inlineStr">
-        <is>
-          <t>Point 29</t>
-        </is>
-      </c>
-      <c r="B133" s="9" t="inlineStr">
-        <is>
-          <t>PIN-XAL-C</t>
-        </is>
-      </c>
-      <c r="C133" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D133" s="9" t="inlineStr">
-        <is>
-          <t>Pin,Crossarm Light,Corrosive</t>
-        </is>
-      </c>
-      <c r="E133" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F133" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G133" s="10" t="inlineStr"/>
-      <c r="H133" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="12" t="inlineStr">
-        <is>
-          <t>Point 29</t>
-        </is>
-      </c>
-      <c r="B134" s="12" t="inlineStr">
-        <is>
-          <t>POL-40-1</t>
-        </is>
-      </c>
-      <c r="C134" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D134" s="12" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 1</t>
-        </is>
-      </c>
-      <c r="E134" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F134" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G134" s="13" t="inlineStr"/>
-      <c r="H134" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="15" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="H135" s="16" t="n">
-        <v>0</v>
+      <c r="H118" s="16" t="n">
+        <v>7184.450000000002</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A36:G36"/>
     <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A135:G135"/>
-    <mergeCell ref="A88:H88"/>
+    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="A86:H86"/>
+    <mergeCell ref="A118:G118"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A99:H99"/>
+    <mergeCell ref="A83:G83"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A96:G96"/>
     <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A72:G72"/>
     <mergeCell ref="G12:I12"/>
-    <mergeCell ref="A45:H45"/>
+    <mergeCell ref="A75:H75"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A85:G85"/>
-    <mergeCell ref="A42:G42"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
